--- a/GRE/词汇/要你命三千系列/magoosh剔除3000的单词.xlsx
+++ b/GRE/词汇/要你命三千系列/magoosh剔除3000的单词.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5'!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1402">
   <si>
     <t>aberration</t>
   </si>
@@ -25,17 +28,6 @@
     <t>Aberrations in climate have become the norm: rarely a week goes by without some meteorological phenomenon making headlines.</t>
   </si>
   <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>noun: the ability to go into (when somebody or something must allow you to enter)_x000D_
- verb: to go into something when allowed to enter</t>
-  </si>
-  <si>
-    <t>Only students have access to the university library. _x000D_
-There is a large amount of oil under the ice, but we have not be able to access it.</t>
-  </si>
-  <si>
     <t>acrimony</t>
   </si>
   <si>
@@ -61,12 +53,6 @@
   </si>
   <si>
     <t>At the assembly, the high school vice-principal gave the students an admonitory speech, warning them of the many risks and dangers of prom night.</t>
-  </si>
-  <si>
-    <t>aesthete</t>
-  </si>
-  <si>
-    <t>noun: one who professes great sensitivity to the beauty of art and nature</t>
   </si>
   <si>
     <t>A true aesthete, Marty would spend hours at the Guggenheim Museum, staring at the same Picasso.</t>
@@ -104,9 +90,6 @@
     <t>amok</t>
   </si>
   <si>
-    <t>adverb: in a frenzied or uncontrolled state</t>
-  </si>
-  <si>
     <t>Wherever the bowl haircut teen-idol went, his legions of screaming fans ran through the streets amok, hoping for a glance at his boyish face.</t>
   </si>
   <si>
@@ -122,9 +105,6 @@
     <t>anachronism</t>
   </si>
   <si>
-    <t>noun: something that is inappropriate for the given time period (usually something old).</t>
-  </si>
-  <si>
     <t>Dressed in 15th century clothing each day, Edward was a walking anachronism.</t>
   </si>
   <si>
@@ -135,9 +115,6 @@
   </si>
   <si>
     <t>The governor’s animosity toward his rival was only inflamed when the latter spread false lies regarding the governor’s first term.</t>
-  </si>
-  <si>
-    <t>anodyne</t>
   </si>
   <si>
     <t>noun: something that soothes or relieves pain_x000D_
@@ -175,18 +152,12 @@
     <t>The Ivy League is considered the apex of the secondary education system.</t>
   </si>
   <si>
-    <t>aphoristic</t>
-  </si>
-  <si>
     <t>adjective: something that is concise and instructive of a general truth or principle</t>
   </si>
   <si>
     <t>Sometimes I can't stand Nathan because he tries to impress everyone by being aphoristic, but he just states the obvious.</t>
   </si>
   <si>
-    <t>aplomb</t>
-  </si>
-  <si>
     <t>noun: great coolness and composure under strain</t>
   </si>
   <si>
@@ -208,30 +179,18 @@
     <t>An apostate of the Republican Party, Sheldon has yet to become affiliated with any party and dubs himself an independent.</t>
   </si>
   <si>
-    <t>apothegm</t>
-  </si>
-  <si>
-    <t>noun: a short, pithy instructive saying</t>
-  </si>
-  <si>
     <t>Winston Churchill is famous for many apothegms, but this might be his most famous: "It has been said that democracy is the worst form of government except all the others that have been tried."</t>
   </si>
   <si>
     <t>apotheosis</t>
   </si>
   <si>
-    <t>noun: exaltation to divine status; the highest point of development</t>
-  </si>
-  <si>
     <t>As difficult as it is to imagine, the apotheosis of Mark Zuckerberg’s career, many believe, is yet to come.</t>
   </si>
   <si>
     <t>appease</t>
   </si>
   <si>
-    <t>verb: pacify by acceding to the demands of</t>
-  </si>
-  <si>
     <t>Neville Chamberlain, the British prime minister during WWII, tried to appease Hitler and in doing so sent a clear message: you can walk all over us.</t>
   </si>
   <si>
@@ -244,9 +203,6 @@
     <t>Although it might not be her best work, Hunter's new novel has received generally approbatory reviews.</t>
   </si>
   <si>
-    <t>appurtenant</t>
-  </si>
-  <si>
     <t>adjective: supply added support</t>
   </si>
   <si>
@@ -256,18 +212,9 @@
     <t>arch</t>
   </si>
   <si>
-    <t>adjective: to be deliberately teasing</t>
-  </si>
-  <si>
-    <t>The baroness was arch, making playful asides to the townspeople; yet because they couldn't pick up on her dry humor, they thought her supercilious.</t>
-  </si>
-  <si>
     <t>arrant</t>
   </si>
   <si>
-    <t>adjective: complete and wholly (usually modifying a noun with negative connotation)</t>
-  </si>
-  <si>
     <t>An arrant fool, Lawrence surprised nobody when he lost all his money in a pyramid scheme that was every bit as transparent as it was corrupt.</t>
   </si>
   <si>
@@ -290,10 +237,6 @@
   </si>
   <si>
     <t>artful</t>
-  </si>
-  <si>
-    <t>adjective: exhibiting artistic skill;_x000D_
-adjective: clever in a cunning way</t>
   </si>
   <si>
     <t>Picasso is generally considered the most artful member of the Cubist movement.;_x000D_
@@ -375,9 +318,6 @@
     <t>audacity</t>
   </si>
   <si>
-    <t>noun: aggressive boldness in social situations</t>
-  </si>
-  <si>
     <t>She surprised her colleagues by having the audacity to publically criticize the findings of an distinguished scientist.</t>
   </si>
   <si>
@@ -433,9 +373,6 @@
     <t>banality</t>
   </si>
   <si>
-    <t>noun: a trite or obvious remark</t>
-  </si>
-  <si>
     <t>Herbert regarded the minister's remark as a mere banality until Sharon pointed out profound implications to the seemingly obvious words.</t>
   </si>
   <si>
@@ -485,22 +422,12 @@
   </si>
   <si>
     <t>begrudge</t>
-  </si>
-  <si>
-    <t>verb: to envy someone for possessing or enjoying something_x000D_
-verb: to give reluctantly</t>
   </si>
   <si>
     <t>Sitting all alone in his room, Harvey begrudged the happiness of the other children playing outside his window._x000D_
 We never begrudge money spent on ourselves.</t>
   </si>
   <si>
-    <t>behooves</t>
-  </si>
-  <si>
-    <t>verb: to be one's duty or obligation</t>
-  </si>
-  <si>
     <t>The teacher looked down at the student and said, "It would behoove you to be in class on time and complete your homework, so that you don't repeat freshman English for a third straight year."</t>
   </si>
   <si>
@@ -511,9 +438,6 @@
   </si>
   <si>
     <t>A good teacher will never belittle his students, but will instead empower them.</t>
-  </si>
-  <si>
-    <t>bellicose</t>
   </si>
   <si>
     <t>adjective: warlike; inclined to quarrel</t>
@@ -554,13 +478,7 @@
     <t>besiege</t>
   </si>
   <si>
-    <t>verb: harass, as with questions or requests; cause to feel distressed or worried</t>
-  </si>
-  <si>
     <t>After discovering a priceless artifact in her backyard, Jane was besieged by phone calls, emails, and reporters all trying to buy, hold or see the rare piece of history.</t>
-  </si>
-  <si>
-    <t>besotted</t>
   </si>
   <si>
     <t>adjective: strongly affectionate towards_x000D_
@@ -580,21 +498,12 @@
     <t>With the gold medal at stake, the gymnast awaited his turn, his quivering lip betraying his intense emotions.</t>
   </si>
   <si>
-    <t>bilious</t>
-  </si>
-  <si>
-    <t>adjective: irritable; always angry</t>
-  </si>
-  <si>
     <t>Rex was bilious all morning, and his face would only take on a look of contentedness when he’d had his morning cup of coffee.</t>
   </si>
   <si>
     <t>bleak</t>
   </si>
   <si>
-    <t>adjective: having a depressing or gloomy outlook</t>
-  </si>
-  <si>
     <t>Unremitting overcast skies tend to lead people to create bleak literature and lugubrious music — compare England’s band Radiohead to any band from Southern California.</t>
   </si>
   <si>
@@ -610,18 +519,9 @@
     <t>boorish</t>
   </si>
   <si>
-    <t>adjective: ill-mannered and coarse or contemptible in behavior or appearance</t>
-  </si>
-  <si>
     <t>Bukowski was known for being a boorish drunk and alienating close friends and family.</t>
   </si>
   <si>
-    <t>bowdlerize</t>
-  </si>
-  <si>
-    <t>verb: edit by omitting or modifying parts considered indelicate</t>
-  </si>
-  <si>
     <t>To receive an R rating, the entire movie was bowdlerized because it contained so much violence and grotesque subject matter.</t>
   </si>
   <si>
@@ -634,18 +534,9 @@
     <t>Political broadsides are usually strongest in the weeks leading up to a national election.</t>
   </si>
   <si>
-    <t>brusquely</t>
-  </si>
-  <si>
-    <t>adverb: in a blunt, direct manner</t>
-  </si>
-  <si>
     <t>Not one for social pleasantries, the Chief of Staff would brusquely ask his subordinates anything he wanted, even coffee.</t>
   </si>
   <si>
-    <t>bucolic</t>
-  </si>
-  <si>
     <t>adjective: relating to the pleasant aspects of the country</t>
   </si>
   <si>
@@ -662,9 +553,6 @@
   </si>
   <si>
     <t>cadaverous</t>
-  </si>
-  <si>
-    <t>adjective: emaciated; gaunt</t>
   </si>
   <si>
     <t>Some actors take challenging roles in which they have to lose so much weight that they appear cadaverous.</t>
@@ -710,24 +598,15 @@
     <t>capricious</t>
   </si>
   <si>
-    <t>adjective: determined by chance or impulse or whim rather than by necessity or reason</t>
-  </si>
-  <si>
     <t>Nearly every month our capricious CEO had a new plan to turn the company around, and none of them worked because we never gave them the time they needed to succeed.</t>
   </si>
   <si>
     <t>carping</t>
   </si>
   <si>
-    <t>adjective: persistently petty and unjustified criticism</t>
-  </si>
-  <si>
     <t>What seemed like incessant nagging and carping about my behavior from my mother turned out to be wise and useful advice that has served me well.</t>
   </si>
   <si>
-    <t>cataclysm</t>
-  </si>
-  <si>
     <t>noun: an event resulting in great loss and misfortune</t>
   </si>
   <si>
@@ -743,12 +622,6 @@
     <t>Rosa Park’s refusal to give up her bus seat acted as a catalyst for the Civil Rights Movement, setting into motion historic changes for African-Americans.</t>
   </si>
   <si>
-    <t>cavalier</t>
-  </si>
-  <si>
-    <t>adjective: given to haughty disregard of others</t>
-  </si>
-  <si>
     <t>Percy dismissed the issue with a cavalier wave of his hand.</t>
   </si>
   <si>
@@ -764,15 +637,9 @@
     <t>cerebral</t>
   </si>
   <si>
-    <t>adjective: involving intelligence rather than emotions or instinct</t>
-  </si>
-  <si>
     <t>A cerebral analysis of most pop music finds it to be simple and childish, but that ignores the point--the music's effect on the listener.</t>
   </si>
   <si>
-    <t>chastise</t>
-  </si>
-  <si>
     <t>verb: to reprimand harshly</t>
   </si>
   <si>
@@ -800,9 +667,6 @@
     <t>checkered</t>
   </si>
   <si>
-    <t>adjective: one that is marked by disreputable happenings</t>
-  </si>
-  <si>
     <t>One by one, the presidential candidates dropped out of the race, their respective checkered pasts— from embezzlement to infidelity—sabotaging their campaigns.</t>
   </si>
   <si>
@@ -815,12 +679,6 @@
     <t>Many believe that a world free of war is a chimera—a dream that ignores humanity's violent tendencies.</t>
   </si>
   <si>
-    <t>chortle</t>
-  </si>
-  <si>
-    <t>verb: to chuckle, laugh merrily</t>
-  </si>
-  <si>
     <t>Walking past the bar, I could hear happy, chortling people and the blast of horns from a jazz band.</t>
   </si>
   <si>
@@ -836,16 +694,10 @@
     <t>clemency</t>
   </si>
   <si>
-    <t>noun: leniency and compassion shown toward offenders by a person or agency charged with administering justice</t>
-  </si>
-  <si>
     <t>In the final moments of the trial, during his closing speech, Phillips was nearly begging the judge for clemency.</t>
   </si>
   <si>
     <t>collusion</t>
-  </si>
-  <si>
-    <t>noun: agreement on a secret plot</t>
   </si>
   <si>
     <t>Many have argued that Lee Harvey Oswald, JFK's assassin, was in collusion with other criminals; others maintain that Oswald was a lone gunman.</t>
@@ -937,9 +789,6 @@
     <t>contemptuous</t>
   </si>
   <si>
-    <t>adjective: scornful, looking down at others with a sneering attitude</t>
-  </si>
-  <si>
     <t>Always on the forefront of fashion, Vanessa looked contemptuously at anyone wearing dated clothing.</t>
   </si>
   <si>
@@ -966,9 +815,6 @@
     <t>contrive</t>
   </si>
   <si>
-    <t>verb: to pull off a plan or scheme, usually through skill or trickery</t>
-  </si>
-  <si>
     <t>Despite a low GPA, he contrived to get into college, going so far as to write his own glowing letters of recommendation.</t>
   </si>
   <si>
@@ -981,9 +827,6 @@
     <t>The wedding reception was convivial; friends who hadn't seen each other for ages drank and ate together before heading to the dance floor.</t>
   </si>
   <si>
-    <t>corollary</t>
-  </si>
-  <si>
     <t>noun: a practical consequence that follows naturally</t>
   </si>
   <si>
@@ -993,18 +836,12 @@
     <t>cosseted</t>
   </si>
   <si>
-    <t>verb: treat with excessive indulgence</t>
-  </si>
-  <si>
     <t>The king and queen cosseted the young prince, giving him a prized miniature pony for his fifth birthday.</t>
   </si>
   <si>
     <t>coterminous</t>
   </si>
   <si>
-    <t>adjective: being of equal extent or scope or duration</t>
-  </si>
-  <si>
     <t>The border of the state is coterminous with geographic limits on travel; the east and north are surrounded by a nearly uncrossable river and the south by a desert.</t>
   </si>
   <si>
@@ -1020,27 +857,15 @@
     <t>credulity</t>
   </si>
   <si>
-    <t>noun: tendency to believe readily</t>
-  </si>
-  <si>
     <t>Virginia's wide-eyed credulity as a five-year old was replaced by suspicion after she learned that Santa Claus didn't really exist.</t>
   </si>
   <si>
-    <t>crystallize</t>
-  </si>
-  <si>
-    <t>verb: cause to take on a definite and clear shape</t>
-  </si>
-  <si>
     <t>Only after fifteen minutes of brainstorming did Samantha's ideas for the essay crystallize.</t>
   </si>
   <si>
     <t>culminate</t>
   </si>
   <si>
-    <t>verb: reach the highest or most decisive point</t>
-  </si>
-  <si>
     <t>Beethoven's musical genius culminated in the 9th Symphony, which many consider his greatest work.</t>
   </si>
   <si>
@@ -1074,9 +899,6 @@
     <t>decorous</t>
   </si>
   <si>
-    <t>adjective: characterized by good taste in manners and conduct</t>
-  </si>
-  <si>
     <t>Sally's parties are decorous affairs, and instead of the usual beer and music, there is tea and intellectual conversation.</t>
   </si>
   <si>
@@ -1101,9 +923,6 @@
     <t>demean</t>
   </si>
   <si>
-    <t>verb: to insult; to cause someone to lose dignity or respect</t>
-  </si>
-  <si>
     <t>At first the soccer players bantered back and forth, but as soon as one of the players became demeaning, calling the other's mother a water buffalo, the ref whipped out a red card.</t>
   </si>
   <si>
@@ -1144,10 +963,6 @@
   </si>
   <si>
     <t>derive</t>
-  </si>
-  <si>
-    <t>verb: come from; be connected by a relationship of blood, for example_x000D_
-verb: reason by deduction; establish by deduction</t>
   </si>
   <si>
     <t>Many words in the English language are derived from Latin, including the word "derive."_x000D_
@@ -1166,9 +981,6 @@
     <t>desiccated</t>
   </si>
   <si>
-    <t>adjective: uninteresting, lacking vitality</t>
-  </si>
-  <si>
     <t>Few novelists over 80 are able to produce anything more than desiccated works--boring shadows of former books.</t>
   </si>
   <si>
@@ -1191,9 +1003,6 @@
   </si>
   <si>
     <t>despot</t>
-  </si>
-  <si>
-    <t>noun: a cruel and oppressive dictator</t>
   </si>
   <si>
     <t>The Emperor Claudius was regarded as a fair-minded leader; his successor, Nero, was an absolute despot.</t>
@@ -1222,10 +1031,6 @@
     <t>devolve</t>
   </si>
   <si>
-    <t>verb: pass on or delegate to another_x000D_
-verb: grow worse (usually "devolve into")</t>
-  </si>
-  <si>
     <t>The company was full of managers known for devolving tasks to lower management, but never doing much work themselves._x000D_
 The dialogue between the two academics devolved into a downright bitter argument.</t>
   </si>
@@ -1282,9 +1087,6 @@
     <t>disenfranchise</t>
   </si>
   <si>
-    <t>verb: deprive of voting rights</t>
-  </si>
-  <si>
     <t>The U.S. Constitution disenfranchised women until 1920 when they were given the right to vote.</t>
   </si>
   <si>
@@ -1318,36 +1120,24 @@
     <t>dissolution</t>
   </si>
   <si>
-    <t>noun: a living full of debauchery and indulgence in sensual pleasure</t>
-  </si>
-  <si>
     <t>Many Roman emperors were known for their dissolution, indulging in unspeakable desires of the flesh.</t>
   </si>
   <si>
     <t>docile</t>
   </si>
   <si>
-    <t>adjective: easily handled or managed; willing to be taught or led or supervised or directed</t>
-  </si>
-  <si>
     <t>Barnyard animals are considerably more docile than the wild animals.</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>verb: to pursue relentlessly; to hound</t>
-  </si>
-  <si>
     <t>Throughout his life, he was dogged by insecurities that inhibited personal growth.</t>
   </si>
   <si>
     <t>dogmatic</t>
   </si>
   <si>
-    <t>adjective: highly opinionated, not accepting that your belief may not be correct</t>
-  </si>
-  <si>
     <t>Bryan is dogmatic in his belief that the earth is flat, claiming that all pictures of a spherical earth are computer generated.</t>
   </si>
   <si>
@@ -1381,9 +1171,6 @@
     <t>duress</t>
   </si>
   <si>
-    <t>noun: compulsory force or threat</t>
-  </si>
-  <si>
     <t>The witness said he signed the contract under duress and argued that the court should cancel the agreement.</t>
   </si>
   <si>
@@ -1399,9 +1186,6 @@
     <t>edifying</t>
   </si>
   <si>
-    <t>adjective: enlightening or uplifting so as to encourage intellectual or moral improvement</t>
-  </si>
-  <si>
     <t>I recently read an article in the Times about whether good literature is edifying or not; specifically, does reading more make a person more moral.</t>
   </si>
   <si>
@@ -1423,27 +1207,18 @@
     <t>An egotist, Natasha had few friends because of her inability to talk about anything except her dream of becoming the next American Idol.</t>
   </si>
   <si>
-    <t>egregious</t>
-  </si>
-  <si>
     <t>adjective: standing out in negative way; shockingly bad</t>
   </si>
   <si>
     <t>The dictator’s abuse of human rights was so egregious that many world leaders demanded that he be tried in an international court for genocide.</t>
   </si>
   <si>
-    <t>eke</t>
-  </si>
-  <si>
     <t>verb: To live off meager resources, to scrape by</t>
   </si>
   <si>
     <t>Stranded in a cabin over the winter, Terry was able to eke out an existence on canned food.</t>
   </si>
   <si>
-    <t>elegiac</t>
-  </si>
-  <si>
     <t>adjective: expressing sorrow</t>
   </si>
   <si>
@@ -1468,36 +1243,21 @@
     <t>McCartney would write relatively straightforward lyrics, and Lennon would embellish them with puns and poetic images.</t>
   </si>
   <si>
-    <t>embroiled</t>
-  </si>
-  <si>
     <t>adjective: involved in argument or contention</t>
   </si>
   <si>
     <t>These days we are never short of a D.C. politician embroiled in scandal—a welcome phenomenon for those who, having barely finished feasting on the sordid details of one imbroglio, can sink their teeth into a fresh one.</t>
   </si>
   <si>
-    <t>empathetic</t>
-  </si>
-  <si>
     <t>adjective: showing understanding and ready comprehension of other peoples' states and emotions</t>
   </si>
   <si>
     <t>Most discrimination and hatred is based on a lack of empathetic awareness of people that have the same aspirations and fears.</t>
   </si>
   <si>
-    <t>empiricism</t>
-  </si>
-  <si>
-    <t>noun: any method that derives knowledge from experience, used in experimental science as a way to gain insight and knowledge</t>
-  </si>
-  <si>
     <t>Empiricism does not always lead to knowledge; an experience or experiment may raise more questions than it answers.</t>
   </si>
   <si>
-    <t>enamor</t>
-  </si>
-  <si>
     <t>verb: attraction or feeling of love</t>
   </si>
   <si>
@@ -1529,9 +1289,6 @@
   </si>
   <si>
     <t>By the time we reach 60-years old, most of our habits are so entrenched that it is difficult for us to change.</t>
-  </si>
-  <si>
-    <t>enumerate</t>
   </si>
   <si>
     <t>verb: determine the number or amount of_x000D_
@@ -1542,28 +1299,16 @@
 I sat and listened as she enumerated all of the things she did not like about the past three months.</t>
   </si>
   <si>
-    <t>epiphany</t>
-  </si>
-  <si>
-    <t>noun: a sudden revelation or moment of insight</t>
-  </si>
-  <si>
     <t>Gary one day had an epiphany that he was a people person; he prompty quit his factory job and began working as a salesman.</t>
   </si>
   <si>
     <t>eponym</t>
   </si>
   <si>
-    <t>noun: the name derived from a person (real or imaginary); the person for whom something is named</t>
-  </si>
-  <si>
     <t>Alexandria, Egypt is an eponym because it is named after Alexander the Great.</t>
   </si>
   <si>
     <t>equitable</t>
-  </si>
-  <si>
-    <t>adjective: fair to all parties as dictated by reason and conscience</t>
   </si>
   <si>
     <t>The equitable distribution of ice cream to a group of 5 year olds will ensure little to no fighting—at least until the ice cream is gone.</t>
@@ -3455,9 +3200,6 @@
     <t>thoroughgoing</t>
   </si>
   <si>
-    <t>adjective: very thorough; complete</t>
-  </si>
-  <si>
     <t>As a thoroughgoing bibliophile, one who had turned his house into a veritable library, he shocked his friends when he bought a Kindle.</t>
   </si>
   <si>
@@ -3479,39 +3221,24 @@
     <t>One of the goals of alchemy was to find the substance or process that would transmute lead into gold.</t>
   </si>
   <si>
-    <t>tribulation</t>
-  </si>
-  <si>
     <t>noun: something, especially an event, that causes difficulty and suffering</t>
   </si>
   <si>
     <t>As of 2013, nearly 1.5 million Syrians have fled their country hoping to escape the tribulations of a civil war tearing their country to pieces.</t>
   </si>
   <si>
-    <t>truculence</t>
-  </si>
-  <si>
-    <t>noun: defiant aggressiveness</t>
-  </si>
-  <si>
     <t>When the boss confronted Aaron about his earlier remarks, Aaron responded with utter truculence, simply throwing a glass of water in the boss' face and walking away.</t>
   </si>
   <si>
     <t>uncompromising</t>
   </si>
   <si>
-    <t>adjective: not making concessions</t>
-  </si>
-  <si>
     <t>The relationship between Bart and Hilda ultimately failed because they were both so uncompromising, never wanting to change their opinions.</t>
   </si>
   <si>
     <t>unconscionable</t>
   </si>
   <si>
-    <t>adjective: unreasonable; unscrupulous; excessive</t>
-  </si>
-  <si>
     <t>The lawyer’s demands were so unconscionable that rather than pay an exorbitant sum or submit himself to any other inconveniences, the defendant decided to find a new lawyer.</t>
   </si>
   <si>
@@ -3524,9 +3251,6 @@
     <t>The latest symphony broadcast was made possible with underwriting from the Carnegie Endowment.</t>
   </si>
   <si>
-    <t>unequivocal</t>
-  </si>
-  <si>
     <t>adjective: admitting of no doubt or misunderstanding; having only one meaning or interpretation and leading to only one conclusion</t>
   </si>
   <si>
@@ -3536,9 +3260,6 @@
     <t>unforthcoming</t>
   </si>
   <si>
-    <t>adjective: uncooperative, not willing to give up information</t>
-  </si>
-  <si>
     <t>The teacher demanded to know who broke the window while he was out of the room, but the students understandably were unforthcoming.</t>
   </si>
   <si>
@@ -3554,9 +3275,6 @@
     <t>unprecedented</t>
   </si>
   <si>
-    <t>adjective: having never been done or known before; novel</t>
-  </si>
-  <si>
     <t>When America first created its national parks, the idea of setting aside the most beautiful land in a country was unprecedented in the history of mankind.</t>
   </si>
   <si>
@@ -3569,18 +3287,12 @@
     <t>World leaders coming to meet Gandhi would expect a towering sage, and often would be surprised by the unprepossessing little man dressed only in a loincloth and shawl.</t>
   </si>
   <si>
-    <t>unpropitious</t>
-  </si>
-  <si>
     <t>adjective: (of a circumstance) with little chance of success</t>
   </si>
   <si>
     <t>With only a bottle of water and a sandwich, the hikers faced an unpropitious task: ascending a huge mountain that took most two days to climb.</t>
   </si>
   <si>
-    <t>unscrupulous</t>
-  </si>
-  <si>
     <t>adjective: without scruples or principles</t>
   </si>
   <si>
@@ -3596,27 +3308,18 @@
     <t>He acted in an unseemly manner, insulting the hostess and then speaking ill of her deceased husband.</t>
   </si>
   <si>
-    <t>unstinting</t>
-  </si>
-  <si>
     <t>adjective: very generous</t>
   </si>
   <si>
     <t>Helen is unstinting with her time, often spending hours at the house of a sick friend.</t>
   </si>
   <si>
-    <t>untrammeled</t>
-  </si>
-  <si>
     <t>adjective: not confined or limited</t>
   </si>
   <si>
     <t>untrammeled inspired the American Revolution and was enshrined in the Declaration of Independence and the Constitution.</t>
   </si>
   <si>
-    <t>unviable</t>
-  </si>
-  <si>
     <t>adjective: not able to work, survive, or succeed (also spelled inviable).</t>
   </si>
   <si>
@@ -3626,24 +3329,15 @@
     <t>vaunted</t>
   </si>
   <si>
-    <t>adjective: highly or widely praised or boasted about</t>
-  </si>
-  <si>
     <t>For years, they had heard of New York City's vaunted skyline, and when they finally saw it, the spectacular cityscape did not disappoint them in the least.</t>
   </si>
   <si>
     <t>venality</t>
   </si>
   <si>
-    <t>noun: the condition of being susceptible to bribes or corruption</t>
-  </si>
-  <si>
     <t>Even some of the most sacred sporting events are not immune to venality, as many of the officials have received substantial bribes to make biased calls.</t>
   </si>
   <si>
-    <t>verisimilitude</t>
-  </si>
-  <si>
     <t>noun: the appearance of truth</t>
   </si>
   <si>
@@ -3653,9 +3347,6 @@
     <t>vie</t>
   </si>
   <si>
-    <t>verb: compete for something</t>
-  </si>
-  <si>
     <t>While the other teams in the division actively vie for the championship, this team seems content simply to go through the motions of playing.</t>
   </si>
   <si>
@@ -3671,9 +3362,6 @@
     <t>vitriol</t>
   </si>
   <si>
-    <t>noun: abusive or venomous language used to express blame or bitter deep-seated ill will</t>
-  </si>
-  <si>
     <t>His vitriol spewed forth from a deep-seated racism that consumed his whole life.</t>
   </si>
   <si>
@@ -3695,24 +3383,984 @@
     <t>Due to wanton behavior and crude language, the drunk man was thrown out of the bar and asked to never return.</t>
   </si>
   <si>
-    <t>zeitgeist</t>
-  </si>
-  <si>
     <t>noun: spirit of the times</t>
   </si>
   <si>
     <t>Each decade has its own zeitgeist—the 1990’s was a prosperous time in which the promise of the American Dream never seemed more palpable.</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>怨恨，憎恶</t>
+  </si>
+  <si>
+    <t>合适的</t>
+  </si>
+  <si>
+    <t>告诫的</t>
+  </si>
+  <si>
+    <t>noun: one who professes(自称；公开表示) great sensitivity to the beauty of art and nature</t>
+  </si>
+  <si>
+    <t>宣称能审美</t>
+  </si>
+  <si>
+    <t>审美的</t>
+  </si>
+  <si>
+    <t>提供</t>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>adverb: in a frenzied（ 疯狂的；狂乱的；激怒的） or uncontrolled state</t>
+  </si>
+  <si>
+    <t>敌意</t>
+  </si>
+  <si>
+    <t>noun: something that is inappropriate 不适当的；不相称的 for the given time period (usually something old).</t>
+  </si>
+  <si>
+    <t>不合潮流的事物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anodyne
+['ænədaɪn] </t>
+  </si>
+  <si>
+    <t>止痛剂
+无害的</t>
+  </si>
+  <si>
+    <t>异常的</t>
+  </si>
+  <si>
+    <t>缺乏兴趣的</t>
+  </si>
+  <si>
+    <t>顶点</t>
+  </si>
+  <si>
+    <t>格言似的</t>
+  </si>
+  <si>
+    <t>沉着</t>
+  </si>
+  <si>
+    <t>变节的人</t>
+  </si>
+  <si>
+    <t>noun: a short, pithy精练的；简洁有力的 instructive saying</t>
+  </si>
+  <si>
+    <t>格言</t>
+  </si>
+  <si>
+    <t>noun: exaltation得意洋洋，欣喜 to divine 神圣的；非凡的；天赐的；极好的 status; the highest point of development</t>
+  </si>
+  <si>
+    <t>尊奉为神；
+人生巅峰</t>
+  </si>
+  <si>
+    <t>verb: pacify使平静;安慰;平定 by acceding加入;同意;就任 to the demands of</t>
+  </si>
+  <si>
+    <t>使平息；使满足</t>
+  </si>
+  <si>
+    <t>认可的；赞赏的</t>
+  </si>
+  <si>
+    <t>附属的</t>
+  </si>
+  <si>
+    <t>adjective: to be deliberately teasing戏弄</t>
+  </si>
+  <si>
+    <t>The baroness男爵夫人 was arch, making playful asides to the townspeople市民; yet because they couldn't pick up on her dry humor, they thought her supercilious高傲的.</t>
+  </si>
+  <si>
+    <t>故意玩笑的</t>
+  </si>
+  <si>
+    <t>adjective: complete and wholly (usually modifying a noun with negative connotation含蓄；暗示)</t>
+  </si>
+  <si>
+    <t>彻底的</t>
+  </si>
+  <si>
+    <t>暴发户</t>
+  </si>
+  <si>
+    <t>霸占</t>
+  </si>
+  <si>
+    <t>adjective: exhibiting artistic艺术的 skill;_x000D_
+adjective: clever in a cunning way</t>
+  </si>
+  <si>
+    <t>有艺术天赋的；
+狡猾的</t>
+  </si>
+  <si>
+    <t>诡计</t>
+  </si>
+  <si>
+    <t>诚恳的</t>
+  </si>
+  <si>
+    <t>淳朴</t>
+  </si>
+  <si>
+    <t>优势</t>
+  </si>
+  <si>
+    <t>归咎于</t>
+  </si>
+  <si>
+    <t>隔代遗传</t>
+  </si>
+  <si>
+    <t>noun: aggressive boldness大胆；冒失；显著 in social situations</t>
+  </si>
+  <si>
+    <t>大胆</t>
+  </si>
+  <si>
+    <t>增加；提高</t>
+  </si>
+  <si>
+    <t>独裁的</t>
+  </si>
+  <si>
+    <t>贪婪的</t>
+  </si>
+  <si>
+    <t>避开；避免</t>
+  </si>
+  <si>
+    <t>noun: a trite陈腐的;平庸的 or obvious remark</t>
+  </si>
+  <si>
+    <t>陈词滥调</t>
+  </si>
+  <si>
+    <t>卑贱的</t>
+  </si>
+  <si>
+    <t>腐化的行为</t>
+  </si>
+  <si>
+    <t>幸福的</t>
+  </si>
+  <si>
+    <t>逃避</t>
+  </si>
+  <si>
+    <t>verb: to envy嫉妒 someone for possessing控制；使掌握；持有 or enjoying something_x000D_
+verb: to give reluctantly</t>
+  </si>
+  <si>
+    <t>嫉妒;
+吝啬</t>
+  </si>
+  <si>
+    <t>verb: to be one's duty or obligation义务；职责；债务</t>
+  </si>
+  <si>
+    <t>behoove</t>
+  </si>
+  <si>
+    <t>理应</t>
+  </si>
+  <si>
+    <t>贬低</t>
+  </si>
+  <si>
+    <t>好战的</t>
+  </si>
+  <si>
+    <t>表达后悔</t>
+  </si>
+  <si>
+    <t>愚昧的</t>
+  </si>
+  <si>
+    <t>失恋的</t>
+  </si>
+  <si>
+    <t>verb: harass 使困扰；使烦恼, as with questions or requests; cause to feel distressed or worried</t>
+  </si>
+  <si>
+    <t>使烦恼</t>
+  </si>
+  <si>
+    <t>迷恋的
+喝醉的</t>
+  </si>
+  <si>
+    <t>泄露</t>
+  </si>
+  <si>
+    <t>adjective: irritable急躁的；易怒的; always angry</t>
+  </si>
+  <si>
+    <t>易怒的</t>
+  </si>
+  <si>
+    <t>adjective: having a depressing or gloomy黑暗的；沮丧的；阴郁的 outlook</t>
+  </si>
+  <si>
+    <t>没有希望的</t>
+  </si>
+  <si>
+    <t>思路狭窄的</t>
+  </si>
+  <si>
+    <t>adjective: ill-mannered and coarse粗糙的；粗俗的；下等的 or contemptible in behavior or appearance</t>
+  </si>
+  <si>
+    <t>粗鲁的</t>
+  </si>
+  <si>
+    <t>verb: edit by omitting or modifying parts considered indelicate无教养的；不文雅的</t>
+  </si>
+  <si>
+    <t>删改</t>
+  </si>
+  <si>
+    <t>辱骂</t>
+  </si>
+  <si>
+    <t>adverb: in a blunt生硬的；直率的, direct manner</t>
+  </si>
+  <si>
+    <t>直率地</t>
+  </si>
+  <si>
+    <t>狂乱地</t>
+  </si>
+  <si>
+    <t>充足地</t>
+  </si>
+  <si>
+    <t>怀疑地</t>
+  </si>
+  <si>
+    <t>自治地</t>
+  </si>
+  <si>
+    <t>坚持刻苦地</t>
+  </si>
+  <si>
+    <t>美丽的</t>
+  </si>
+  <si>
+    <t>笨拙的</t>
+  </si>
+  <si>
+    <t>adjective: emaciated瘦弱的；憔悴的; gaunt憔悴的；荒凉的；枯瘦的</t>
+  </si>
+  <si>
+    <t>憔悴的</t>
+  </si>
+  <si>
+    <t>诽谤</t>
+  </si>
+  <si>
+    <t>坦白的；公正的</t>
+  </si>
+  <si>
+    <t>坦白；公正</t>
+  </si>
+  <si>
+    <t>容量</t>
+  </si>
+  <si>
+    <t>adjective: determined by chance or impulse冲动 or whim幻想 rather than by necessity or reason</t>
+  </si>
+  <si>
+    <t>不理智的</t>
+  </si>
+  <si>
+    <t>adjective: persistently petty琐碎的；小气的；小规模的 and unjustified criticism</t>
+  </si>
+  <si>
+    <t>吹毛求疵的</t>
+  </si>
+  <si>
+    <t>灾难</t>
+  </si>
+  <si>
+    <t>催化剂</t>
+  </si>
+  <si>
+    <t>adjective: given to haughty傲慢的；自大的 disregard of others</t>
+  </si>
+  <si>
+    <t>傲慢的</t>
+  </si>
+  <si>
+    <t>快速</t>
+  </si>
+  <si>
+    <t>adjective: involving intelligence rather than emotions or instinct本能，直觉；天性</t>
+  </si>
+  <si>
+    <t>理智的</t>
+  </si>
+  <si>
+    <t>谴责</t>
+  </si>
+  <si>
+    <t>盲目的爱国</t>
+  </si>
+  <si>
+    <t>盲目的爱国者</t>
+  </si>
+  <si>
+    <t>adjective: one that is marked by disreputable声名狼藉的；肮脏的；破烂不堪的 happenings</t>
+  </si>
+  <si>
+    <t>声名狼藉的</t>
+  </si>
+  <si>
+    <t>幻想</t>
+  </si>
+  <si>
+    <t>verb: to chuckle轻声地笑, laugh merrily</t>
+  </si>
+  <si>
+    <t>轻声地笑</t>
+  </si>
+  <si>
+    <t>noun: leniency宽大，仁慈；温和 and compassion同情；怜悯 shown toward offenders by a person or agency charged with administering justice</t>
+  </si>
+  <si>
+    <t>仁慈</t>
+  </si>
+  <si>
+    <t>noun: agreement on a secret plot情节；图；阴谋</t>
+  </si>
+  <si>
+    <t>勾结；共谋</t>
+  </si>
+  <si>
+    <t>值得赞美的</t>
+  </si>
+  <si>
+    <t>乐意</t>
+  </si>
+  <si>
+    <t>有同谋关系的，串通一气的</t>
+  </si>
+  <si>
+    <t>共存的</t>
+  </si>
+  <si>
+    <t>共谋</t>
+  </si>
+  <si>
+    <t>使神圣；奉献</t>
+  </si>
+  <si>
+    <t>代表；
+样本</t>
+  </si>
+  <si>
+    <t>约束</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>中文解释</t>
+  </si>
+  <si>
+    <t>英文解释</t>
+  </si>
+  <si>
+    <t>例句</t>
+  </si>
+  <si>
+    <t>adjective: scornful轻蔑的, looking down at others with a sneering嘲笑的；轻蔑的 attitude</t>
+  </si>
+  <si>
+    <t>轻蔑的</t>
+  </si>
+  <si>
+    <t>代表团；
+可能发生的</t>
+  </si>
+  <si>
+    <t>后悔</t>
+  </si>
+  <si>
+    <t>verb: to pull off赢得；脱下；努力实现 a plan or scheme计划；组合；体制；诡计, usually through skill or trickery</t>
+  </si>
+  <si>
+    <t>图谋</t>
+  </si>
+  <si>
+    <t>欢宴的</t>
+  </si>
+  <si>
+    <t>必然的结果</t>
+  </si>
+  <si>
+    <t>verb: treat with excessive indulgence嗜好；放纵；纵容；沉溺</t>
+  </si>
+  <si>
+    <t>宠爱的</t>
+  </si>
+  <si>
+    <t>adjective: being of equal extent 程度；范围；长度 or scope or duration</t>
+  </si>
+  <si>
+    <t>相同的</t>
+  </si>
+  <si>
+    <t>noun: tendency to believe readily容易地；乐意地；无困难地</t>
+  </si>
+  <si>
+    <t>轻信</t>
+  </si>
+  <si>
+    <t>verb: cause to take on a definite and clear shape形状；模型；身材；具体化</t>
+  </si>
+  <si>
+    <t>明确</t>
+  </si>
+  <si>
+    <t>verb: reach the highest or most decisive决定性的；果断的，坚定的 point</t>
+  </si>
+  <si>
+    <t>达到顶点</t>
+  </si>
+  <si>
+    <t>过失</t>
+  </si>
+  <si>
+    <t>贪婪</t>
+  </si>
+  <si>
+    <t>屠杀</t>
+  </si>
+  <si>
+    <t>adjective: characterized以…为特点的 by good taste in manners and conduct进行；行为；实施</t>
+  </si>
+  <si>
+    <t>有品位的</t>
+  </si>
+  <si>
+    <t>尊敬的</t>
+  </si>
+  <si>
+    <t>verb: to insult侮辱；辱骂；损害; to cause someone to lose dignity or respect</t>
+  </si>
+  <si>
+    <t>侮辱</t>
+  </si>
+  <si>
+    <t>羞怯的</t>
+  </si>
+  <si>
+    <t>公开表露感情的</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>嘲笑的</t>
+  </si>
+  <si>
+    <t>verb: come from; be connected by a relationship of blood, for example_x000D_
+verb: reason by deduction扣除，减除；推论；减除额; establish by deduction</t>
+  </si>
+  <si>
+    <t>源自
+推论</t>
+  </si>
+  <si>
+    <t>贬损的</t>
+  </si>
+  <si>
+    <t>adjective: uninteresting, lacking vitality 活力，生气；生命力，生动性</t>
+  </si>
+  <si>
+    <t>无活力的</t>
+  </si>
+  <si>
+    <t>迫切需要的东西</t>
+  </si>
+  <si>
+    <t>尽管</t>
+  </si>
+  <si>
+    <t>noun: a cruel 残酷的，残忍的；使人痛苦的 and oppressive压迫的；沉重的；压制性的；难以忍受的 dictator</t>
+  </si>
+  <si>
+    <t>暴君</t>
+  </si>
+  <si>
+    <t>贫穷的
+缺乏的</t>
+  </si>
+  <si>
+    <t>有害的</t>
+  </si>
+  <si>
+    <t>verb: pass on传递；继续；去世 or delegate 委派…为代表 to another_x000D_
+verb: grow worse (usually "devolve into")</t>
+  </si>
+  <si>
+    <t>转移;
+衰落</t>
+  </si>
+  <si>
+    <t>恶魔的</t>
+  </si>
+  <si>
+    <t>区分
+进化</t>
+  </si>
+  <si>
+    <t>糟糕的</t>
+  </si>
+  <si>
+    <t>微小的</t>
+  </si>
+  <si>
+    <t>verb: deprive使丧失，剥夺 of voting rights</t>
+  </si>
+  <si>
+    <t>剥夺选取权</t>
+  </si>
+  <si>
+    <t>沮丧的</t>
+  </si>
+  <si>
+    <t>虚伪的</t>
+  </si>
+  <si>
+    <t>免除职位义务</t>
+  </si>
+  <si>
+    <t>noun: a living full of debauchery放荡；纵情酒色；堕落 and indulgence嗜好；放纵；纵容；沉溺 in sensual感觉的；肉欲的；世俗的；感觉论的 pleasure</t>
+  </si>
+  <si>
+    <t>放荡</t>
+  </si>
+  <si>
+    <t>adjective: easily handled or managed; willing to be taught or led or supervised监督，管理；指导 or directed</t>
+  </si>
+  <si>
+    <t>温顺的</t>
+  </si>
+  <si>
+    <t>verb: to pursue追赶；继续进行 relentlessly残酷地，无情地; to hound</t>
+  </si>
+  <si>
+    <t>追赶</t>
+  </si>
+  <si>
+    <t>adjective: highly opinionated固执己见的；武断的, not accepting that your belief may not be correct</t>
+  </si>
+  <si>
+    <t>教条的</t>
+  </si>
+  <si>
+    <t>悲哀的</t>
+  </si>
+  <si>
+    <t>勇敢的</t>
+  </si>
+  <si>
+    <t>吻合</t>
+  </si>
+  <si>
+    <t>noun: compulsory义务的；必修的；被强制的 force or threat</t>
+  </si>
+  <si>
+    <t>强迫</t>
+  </si>
+  <si>
+    <t>经济有效的</t>
+  </si>
+  <si>
+    <t>adjective: enlightening or uplifting提高；上升；升起 so as to encourage intellectual or moral improvement</t>
+  </si>
+  <si>
+    <t>有益的</t>
+  </si>
+  <si>
+    <t>兴奋的</t>
+  </si>
+  <si>
+    <t>自负的人</t>
+  </si>
+  <si>
+    <t>邪恶的</t>
+  </si>
+  <si>
+    <t>竭力维持</t>
+  </si>
+  <si>
+    <t>哀伤的</t>
+  </si>
+  <si>
+    <t>难懂的；易忘的</t>
+  </si>
+  <si>
+    <t>润色</t>
+  </si>
+  <si>
+    <t>卷入争论的</t>
+  </si>
+  <si>
+    <t>感同身受的</t>
+  </si>
+  <si>
+    <t>noun: any method that derives源于；得自 knowledge from experience, used in experimental science as a way to gain insight and knowledge</t>
+  </si>
+  <si>
+    <t>经验论</t>
+  </si>
+  <si>
+    <t>使倾心</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>暴行</t>
+  </si>
+  <si>
+    <t>稳固的</t>
+  </si>
+  <si>
+    <t>枚举
+列举</t>
+  </si>
+  <si>
+    <t>noun: a sudden revelation启示；揭露 or moment of insightn. 洞察力；洞悉</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>aesthete
+ ['iːsθiːt; 'es-]</t>
+  </si>
+  <si>
+    <t>aphoristic
+[,æflə'dʒɪstɪk]</t>
+  </si>
+  <si>
+    <t>aplomb
+[ə'plɒm]</t>
+  </si>
+  <si>
+    <t>apothegm
+['æpəθem]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appurtenant
+[ə'pɜːt(ɪ)nənt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bellicose
+['belɪkəʊs] </t>
+  </si>
+  <si>
+    <t>besotted
+[bi'sɔtid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilious
+['bɪlɪəs] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bowdlerize
+['baʊdləraɪz] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brusquely
+['brʌskli] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucolic
+[bjuː'kɒlɪk] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cataclysm
+['kætə,klɪz(ə)m] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cavalier
+ [,kævə'lɪə] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chastise
+ [tʃæ'staɪz] </t>
+  </si>
+  <si>
+    <t>chortle
+['tʃɔːt(ə)l]</t>
+  </si>
+  <si>
+    <t>corollary
+[kə'rɒlərɪ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystallize
+['kristə,laiz] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">egregious
+[ɪ'griːdʒəs] </t>
+  </si>
+  <si>
+    <t>eke [iːk]</t>
+  </si>
+  <si>
+    <t>elegiac
+[,elɪ'dʒaɪək]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embroiled
+ [im'brɔild] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">empathetic
+[empə'θetɪk] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">empiricism
+[em'pɪrɪsɪz(ə)m] </t>
+  </si>
+  <si>
+    <t>enamor
+[i'næmə]</t>
+  </si>
+  <si>
+    <t>epiphany
+[ɪ'pɪfəni]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enumerate
+[ɪ'njuːməreɪt] </t>
+  </si>
+  <si>
+    <t>noun: the name derived源于；得自 from a person (real or imaginary); the person for whom something is named</t>
+  </si>
+  <si>
+    <t>齐名的人</t>
+  </si>
+  <si>
+    <t>adjective: fair to all parties as dictated by reason and conscience 道德心，良心</t>
+  </si>
+  <si>
+    <t>公正的</t>
+  </si>
+  <si>
+    <t>模棱两可的</t>
+  </si>
+  <si>
+    <t>时代精神</t>
+  </si>
+  <si>
+    <t>放肆的</t>
+  </si>
+  <si>
+    <t>健谈，文思泉涌</t>
+  </si>
+  <si>
+    <t>noun: abusive or venomous有毒的；恶毒的 language used to express blame or bitter deep-seated ill will</t>
+  </si>
+  <si>
+    <t>恶语</t>
+  </si>
+  <si>
+    <t>泼妇</t>
+  </si>
+  <si>
+    <t>verb: competevi. 竞争；比赛；对抗 for something</t>
+  </si>
+  <si>
+    <t>竞争</t>
+  </si>
+  <si>
+    <t>逼真</t>
+  </si>
+  <si>
+    <t>noun: the condition of being susceptible易受影响的；易感动的；容许…的 to bribes or corruption</t>
+  </si>
+  <si>
+    <t>贪赃枉法</t>
+  </si>
+  <si>
+    <t>adjective: highly or widely praised or boasted自吹自擂 about</t>
+  </si>
+  <si>
+    <t>大肆吹嘘的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verisimilitude
+[,verɪsɪ'mɪlɪtjuːd] </t>
+  </si>
+  <si>
+    <t>zeitgeist
+ ['zaɪtgaɪst]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unviable
+[ʌn'vaiəbl] </t>
+  </si>
+  <si>
+    <t>无法成功</t>
+  </si>
+  <si>
+    <t>untrammeled
+[ʌn'træmld]</t>
+  </si>
+  <si>
+    <t>自由自在的</t>
+  </si>
+  <si>
+    <t>unstinting
+[ʌn'stɪntɪŋ]</t>
+  </si>
+  <si>
+    <t>慷慨的</t>
+  </si>
+  <si>
+    <t>不得体的</t>
+  </si>
+  <si>
+    <t>unscrupulous
+[ʌn'skruːpjʊləs]</t>
+  </si>
+  <si>
+    <t>肆无忌惮的</t>
+  </si>
+  <si>
+    <t>不吉利的</t>
+  </si>
+  <si>
+    <r>
+      <t>un</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>propitious</t>
+    </r>
+  </si>
+  <si>
+    <t>不讨人喜欢的</t>
+  </si>
+  <si>
+    <t>adjective: having never been done or known before; novel新奇的；异常的</t>
+  </si>
+  <si>
+    <t>新奇的</t>
+  </si>
+  <si>
+    <t>使紧张；使失落</t>
+  </si>
+  <si>
+    <t>adjective: uncooperative不合作的；不配合的, not willing to give up information</t>
+  </si>
+  <si>
+    <t>不愿响应的</t>
+  </si>
+  <si>
+    <t>明确的</t>
+  </si>
+  <si>
+    <r>
+      <t>un</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>equivocal</t>
+    </r>
+  </si>
+  <si>
+    <t>资金支持</t>
+  </si>
+  <si>
+    <t>不合理的；过度的</t>
+  </si>
+  <si>
+    <t>adjective: unreasonable; unscrupulous  scrupulous ['skruːpjʊləs]  
+adj. 细心的；小心谨慎的；一丝不苟的; excessive</t>
+  </si>
+  <si>
+    <t>adjective: not making concessions让步；特许（权）；承认；退位</t>
+  </si>
+  <si>
+    <t>不让步的</t>
+  </si>
+  <si>
+    <t>好战</t>
+  </si>
+  <si>
+    <t>noun: defiant挑衅的；目中无人的，蔑视的；挑战的 aggressiveness</t>
+  </si>
+  <si>
+    <t>磨难</t>
+  </si>
+  <si>
+    <t>tribulation
+[,trɪbjʊ'leɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>truculence
+['trʌkjuləns]</t>
+  </si>
+  <si>
+    <t>变形</t>
+  </si>
+  <si>
+    <t>节俭的</t>
+  </si>
+  <si>
+    <t>adjective: very thorough彻底的；十分的；周密的; complete</t>
+  </si>
+  <si>
+    <t>缓和的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3720,7 +4368,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3729,7 +4377,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -3738,7 +4386,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3747,7 +4395,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3756,7 +4404,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3764,7 +4412,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3772,7 +4420,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3780,7 +4428,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3788,7 +4436,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3797,7 +4445,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3806,7 +4454,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3814,7 +4462,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3823,7 +4471,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3831,7 +4479,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3840,7 +4488,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3849,7 +4497,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3857,7 +4505,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3877,10 +4525,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4326,48 +4981,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4375,7 +5030,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4659,4531 +5314,5321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C410"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.125" customWidth="1"/>
-    <col min="3" max="3" width="51.25" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:4" ht="31.5">
+      <c r="A6" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="90">
-      <c r="A7" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="75">
-      <c r="A14" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="45">
-      <c r="A18" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="46.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="57" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="39" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
-      <c r="A20" s="2" t="s">
+    <row r="25" spans="1:4" ht="31.5" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45">
-      <c r="A21" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="44.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60">
-      <c r="A22" s="2" t="s">
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="2" t="s">
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45">
-      <c r="A24" s="2" t="s">
+    <row r="30" spans="1:4" ht="30">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="2" t="s">
+    <row r="31" spans="1:4" ht="45">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="45">
-      <c r="A27" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="45">
-      <c r="A28" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="45">
-      <c r="A29" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="45">
-      <c r="A30" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="30">
+      <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="75">
-      <c r="A31" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="30">
+      <c r="A38" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
-      <c r="A32" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
-      <c r="A34" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="60">
+      <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
-      <c r="A36" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="45">
-      <c r="A37" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="45">
-      <c r="A38" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
-      <c r="A40" s="2" t="s">
+    <row r="47" spans="1:4" ht="30">
+      <c r="A47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="2" t="s">
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75">
-      <c r="A42" s="2" t="s">
+    <row r="49" spans="1:4" ht="30">
+      <c r="A49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
-      <c r="A43" s="2" t="s">
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="2" t="s">
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60">
-      <c r="A45" s="2" t="s">
+    <row r="52" spans="1:4" ht="60">
+      <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="30">
+      <c r="A53" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45">
-      <c r="A46" s="2" t="s">
+    <row r="54" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="2" t="s">
+    <row r="55" spans="1:4" ht="44.25" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="36" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="45">
-      <c r="A48" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="45">
-      <c r="A49" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="45">
+      <c r="A58" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="3" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="45">
-      <c r="A51" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
-      <c r="A52" s="2" t="s">
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="60">
-      <c r="A53" s="2" t="s">
+    <row r="62" spans="1:4" ht="46.5" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="2" t="s">
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="2" t="s">
+    <row r="65" spans="1:4" ht="45">
+      <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="3" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="60">
-      <c r="A56" s="2" t="s">
+    <row r="67" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B67" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45">
-      <c r="A57" s="2" t="s">
+    <row r="68" spans="1:4" ht="39" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="44.25" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="60">
-      <c r="A58" s="2" t="s">
+    <row r="70" spans="1:4" ht="30">
+      <c r="A70" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45">
-      <c r="A59" s="2" t="s">
+    <row r="71" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="3" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="30">
+      <c r="A72" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="3" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="30">
+      <c r="A73" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="30">
-      <c r="A61" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="3" t="s">
+    </row>
+    <row r="74" spans="1:4" ht="30">
+      <c r="A74" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="45">
-      <c r="A62" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="3" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="45">
+      <c r="A75" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="45">
-      <c r="A63" s="2" t="s">
+      <c r="B75" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="3" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="30">
+      <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="60">
-      <c r="A64" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="3" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="45">
+      <c r="A77" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="B77" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30">
-      <c r="A65" s="2" t="s">
+    <row r="78" spans="1:4" ht="46.5" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="3" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="30">
+      <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="45">
-      <c r="A66" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="3" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="36" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30">
-      <c r="A67" s="2" t="s">
+    <row r="81" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B81" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45">
-      <c r="A68" s="2" t="s">
+    <row r="82" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="3" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="42" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="30">
-      <c r="A69" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="3" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="42" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="B84" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="30">
-      <c r="A70" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="30">
+      <c r="A85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="30">
-      <c r="A71" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A86" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30">
-      <c r="A72" s="2" t="s">
+    <row r="87" spans="1:4" ht="30">
+      <c r="A87" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30">
-      <c r="A73" s="2" t="s">
+    <row r="88" spans="1:4" ht="31.5">
+      <c r="A88" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="30">
+      <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="45">
-      <c r="A74" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="64.5" customHeight="1">
+      <c r="A90" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="75">
-      <c r="A75" s="2" t="s">
+    <row r="91" spans="1:4" ht="30">
+      <c r="A91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="3" t="s">
+    </row>
+    <row r="92" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="60">
-      <c r="A76" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="30">
+      <c r="A93" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="45">
-      <c r="A77" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="48" customHeight="1">
+      <c r="A94" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="30">
-      <c r="A78" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="45">
+      <c r="A95" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="45">
-      <c r="A79" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="21" customHeight="1">
+      <c r="A96" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="30">
-      <c r="A80" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="97" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A97" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="30">
-      <c r="A81" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="3" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="45">
+      <c r="A98" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="45">
-      <c r="A82" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="60">
-      <c r="A83" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="60">
-      <c r="A84" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30">
-      <c r="A85" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="101" spans="1:4" ht="30">
+      <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="45">
-      <c r="A86" s="2" t="s">
+      <c r="B101" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="3" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="45">
+      <c r="A102" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="B102" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="45">
-      <c r="A87" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B87" s="3" t="s">
+    </row>
+    <row r="103" spans="1:4" ht="30">
+      <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="B103" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="30">
-      <c r="A88" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="3" t="s">
+    </row>
+    <row r="104" spans="1:4" ht="45">
+      <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="B104" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30">
-      <c r="A89" s="2" t="s">
+    <row r="105" spans="1:4" ht="30">
+      <c r="A105" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B105" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="60">
-      <c r="A90" s="2" t="s">
+    <row r="106" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="3" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="30">
+      <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
-      <c r="A91" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B91" s="3" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="30">
+      <c r="A108" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="B108" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45">
-      <c r="A92" s="2" t="s">
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B109" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30">
-      <c r="A93" s="2" t="s">
+    <row r="110" spans="1:4" ht="30">
+      <c r="A110" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B110" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="3" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="45">
-      <c r="A94" s="2" t="s">
+    <row r="112" spans="1:4" ht="30">
+      <c r="A112" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B112" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
+      <c r="A113" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="45">
-      <c r="A95" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="3" t="s">
+    </row>
+    <row r="114" spans="1:4" ht="30">
+      <c r="A114" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="30">
-      <c r="A96" s="2" t="s">
+      <c r="B114" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="115" spans="1:4" ht="30">
+      <c r="A115" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="30">
-      <c r="A97" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="3" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="30">
+      <c r="A116" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="30">
-      <c r="A98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30">
-      <c r="A99" s="2" t="s">
+      <c r="B116" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B99" s="3" t="s">
+    </row>
+    <row r="117" spans="1:4" ht="15.75">
+      <c r="A117" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="B117" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="75">
-      <c r="A100" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B100" s="3" t="s">
+    </row>
+    <row r="118" spans="1:4" ht="21" customHeight="1">
+      <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="B118" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="30">
-      <c r="A101" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="119" spans="1:4" ht="30">
+      <c r="A119" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="B119" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="45">
-      <c r="A102" s="2" t="s">
+    <row r="120" spans="1:4" ht="30">
+      <c r="A120" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B120" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30">
-      <c r="A103" s="2" t="s">
+    <row r="121" spans="1:4" ht="21" customHeight="1">
+      <c r="A121" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B121" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="75">
-      <c r="A104" s="2" t="s">
+    <row r="122" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A122" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B122" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="45">
-      <c r="A105" s="2" t="s">
+    <row r="123" spans="1:4" ht="30">
+      <c r="A123" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B123" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="45">
-      <c r="A106" s="2" t="s">
+    <row r="124" spans="1:4" ht="75">
+      <c r="A124" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B124" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="125" spans="1:4" ht="30">
+      <c r="A125" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="45">
-      <c r="A107" s="2" t="s">
+      <c r="B125" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="30">
+      <c r="A126" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="45">
-      <c r="A108" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="3" t="s">
+    </row>
+    <row r="127" spans="1:4" ht="15.75">
+      <c r="A127" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="B127" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="30">
-      <c r="A109" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B109" s="3" t="s">
+    </row>
+    <row r="128" spans="1:4" ht="30">
+      <c r="A128" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="B128" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="45">
-      <c r="A110" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B110" s="3" t="s">
+    </row>
+    <row r="129" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A129" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="B129" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30">
-      <c r="A111" s="2" t="s">
+    <row r="130" spans="1:4" ht="45">
+      <c r="A130" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B130" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="45">
-      <c r="A112" s="2" t="s">
+    <row r="131" spans="1:4" ht="30">
+      <c r="A131" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B131" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30">
-      <c r="A113" s="2" t="s">
+    <row r="132" spans="1:4" ht="45">
+      <c r="A132" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B132" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="3" t="s">
+    </row>
+    <row r="133" spans="1:4" ht="36" customHeight="1">
+      <c r="A133" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
-      <c r="A114" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="3" t="s">
+    </row>
+    <row r="134" spans="1:4" ht="30">
+      <c r="A134" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
-      <c r="A115" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="3" t="s">
+    </row>
+    <row r="135" spans="1:4" ht="60">
+      <c r="A135" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="45">
-      <c r="A116" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="3" t="s">
+    </row>
+    <row r="136" spans="1:4" ht="15.75">
+      <c r="A136" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="30">
-      <c r="A117" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="3" t="s">
+    </row>
+    <row r="137" spans="1:4" ht="30">
+      <c r="A137" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="45">
-      <c r="A118" s="2" t="s">
+      <c r="B137" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="3" t="s">
+    </row>
+    <row r="138" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A138" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
-      <c r="A119" s="2" t="s">
+      <c r="B138" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B119" s="3" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
+      <c r="A139" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="B139" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
-      <c r="A120" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B120" s="3" t="s">
+    </row>
+    <row r="140" spans="1:4" ht="30">
+      <c r="A140" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="B140" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="60">
-      <c r="A121" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="3" t="s">
+    </row>
+    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A141" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="B141" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="45">
-      <c r="A122" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="3" t="s">
+    </row>
+    <row r="142" spans="1:4" ht="84.75" customHeight="1">
+      <c r="A142" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="B142" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30">
-      <c r="A123" s="2" t="s">
+    <row r="143" spans="1:4" ht="45">
+      <c r="A143" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B143" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="3" t="s">
+    </row>
+    <row r="144" spans="1:4" ht="54" customHeight="1">
+      <c r="A144" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="30">
-      <c r="A124" s="2" t="s">
+      <c r="B144" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B124" s="3" t="s">
+    </row>
+    <row r="145" spans="1:4" ht="30">
+      <c r="A145" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="B145" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30">
-      <c r="A125" s="2" t="s">
+    <row r="146" spans="1:4" ht="30">
+      <c r="A146" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B146" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="75">
-      <c r="A126" s="2" t="s">
+    <row r="147" spans="1:4" ht="15.75">
+      <c r="A147" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B147" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30">
-      <c r="A127" s="2" t="s">
+    <row r="148" spans="1:4" ht="30">
+      <c r="A148" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B148" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30">
-      <c r="A128" s="2" t="s">
+    <row r="149" spans="1:4" ht="30">
+      <c r="A149" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B149" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="3" t="s">
+    </row>
+    <row r="150" spans="1:4" ht="30">
+      <c r="A150" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="30">
-      <c r="A129" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="3" t="s">
+    </row>
+    <row r="151" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A151" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="30">
-      <c r="A130" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B130" s="3" t="s">
+    </row>
+    <row r="152" spans="1:4" ht="30">
+      <c r="A152" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="B152" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="30">
-      <c r="A131" s="2" t="s">
+      <c r="D152" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B131" s="3" t="s">
+    </row>
+    <row r="153" spans="1:4" ht="30">
+      <c r="A153" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="B153" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="60">
-      <c r="A132" s="2" t="s">
+      <c r="D153" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="154" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30">
-      <c r="A133" s="2" t="s">
+    <row r="155" spans="1:4" ht="15.75">
+      <c r="A155" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="3" t="s">
+    </row>
+    <row r="156" spans="1:4" ht="31.5">
+      <c r="A156" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="75">
-      <c r="A134" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B134" s="3" t="s">
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
+      <c r="A157" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="B157" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="30">
-      <c r="A135" s="2" t="s">
+      <c r="D157" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B135" s="3" t="s">
+    </row>
+    <row r="158" spans="1:4" ht="30">
+      <c r="A158" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="B158" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="30">
-      <c r="A136" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B136" s="3" t="s">
+    </row>
+    <row r="159" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="75">
-      <c r="A137" s="2" t="s">
+    <row r="160" spans="1:4" ht="45">
+      <c r="A160" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C137" s="3" t="s">
+    </row>
+    <row r="161" spans="1:4" ht="45">
+      <c r="A161" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30">
-      <c r="A138" s="2" t="s">
+    <row r="162" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C138" s="3" t="s">
+    </row>
+    <row r="163" spans="1:4" ht="30">
+      <c r="A163" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="60">
-      <c r="A139" s="2" t="s">
+      <c r="B163" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="3" t="s">
+    </row>
+    <row r="164" spans="1:4" ht="30">
+      <c r="A164" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="30">
-      <c r="A140" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C140" s="3" t="s">
+    </row>
+    <row r="165" spans="1:4" ht="15.75">
+      <c r="A165" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="30">
-      <c r="A141" s="2" t="s">
+      <c r="B165" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C141" s="3" t="s">
+    </row>
+    <row r="166" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="30">
-      <c r="A142" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B142" s="3" t="s">
+    </row>
+    <row r="167" spans="1:4" ht="36" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C142" s="3" t="s">
+    </row>
+    <row r="168" spans="1:4" ht="45">
+      <c r="A168" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="30">
-      <c r="A143" s="2" t="s">
+      <c r="B168" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B143" s="3" t="s">
+    </row>
+    <row r="169" spans="1:4" ht="30">
+      <c r="A169" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="B169" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30">
-      <c r="A144" s="2" t="s">
+    <row r="170" spans="1:4" ht="15.75">
+      <c r="A170" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B170" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30">
-      <c r="A145" s="2" t="s">
+    <row r="171" spans="1:4" ht="15.75">
+      <c r="A171" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B171" s="2"/>
+      <c r="C171" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30">
-      <c r="A146" s="2" t="s">
+    <row r="172" spans="1:4" ht="15.75">
+      <c r="A172" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B172" s="2"/>
+      <c r="C172" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="45">
-      <c r="A147" s="2" t="s">
+    <row r="173" spans="1:4" ht="15.75">
+      <c r="A173" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B173" s="2"/>
+      <c r="C173" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="45">
-      <c r="A148" s="2" t="s">
+    <row r="174" spans="1:4" ht="15.75">
+      <c r="A174" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B174" s="2"/>
+      <c r="C174" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30">
-      <c r="A149" s="2" t="s">
+    <row r="175" spans="1:4" ht="15.75">
+      <c r="A175" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B175" s="2"/>
+      <c r="C175" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="45">
-      <c r="A150" s="2" t="s">
+    <row r="176" spans="1:4" ht="30">
+      <c r="A176" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B176" s="2"/>
+      <c r="C176" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30">
-      <c r="A151" s="2" t="s">
+    <row r="177" spans="1:4" ht="15.75">
+      <c r="A177" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B177" s="2"/>
+      <c r="C177" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="45">
-      <c r="A152" s="2" t="s">
+    <row r="178" spans="1:4" ht="30">
+      <c r="A178" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B178" s="2"/>
+      <c r="C178" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="45">
-      <c r="A153" s="2" t="s">
+    <row r="179" spans="1:4" ht="15.75">
+      <c r="A179" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B179" s="2"/>
+      <c r="C179" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30">
-      <c r="A154" s="2" t="s">
+    <row r="180" spans="1:4" ht="30">
+      <c r="A180" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B180" s="2"/>
+      <c r="C180" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="45">
-      <c r="A155" s="2" t="s">
+    <row r="181" spans="1:4" ht="30">
+      <c r="A181" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75">
+      <c r="A182" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B182" s="2"/>
+      <c r="C182" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="45">
-      <c r="A156" s="2" t="s">
+    <row r="183" spans="1:4" ht="30">
+      <c r="A183" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B183" s="2"/>
+      <c r="C183" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
-      <c r="A157" s="2" t="s">
+    <row r="184" spans="1:4" ht="30">
+      <c r="A184" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B184" s="2"/>
+      <c r="C184" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30">
-      <c r="A158" s="2" t="s">
+    <row r="185" spans="1:4" ht="15.75">
+      <c r="A185" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B185" s="2"/>
+      <c r="C185" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30">
-      <c r="A159" s="2" t="s">
+    <row r="186" spans="1:4" ht="30">
+      <c r="A186" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B186" s="2"/>
+      <c r="C186" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="45">
-      <c r="A160" s="2" t="s">
+    <row r="187" spans="1:4" ht="15.75">
+      <c r="A187" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B187" s="2"/>
+      <c r="C187" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="60">
-      <c r="A161" s="2" t="s">
+    <row r="188" spans="1:4" ht="15.75">
+      <c r="A188" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B188" s="2"/>
+      <c r="C188" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="45">
-      <c r="A162" s="2" t="s">
+    <row r="189" spans="1:4" ht="30">
+      <c r="A189" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B189" s="2"/>
+      <c r="C189" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="45">
-      <c r="A163" s="2" t="s">
+    <row r="190" spans="1:4" ht="15.75">
+      <c r="A190" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B190" s="2"/>
+      <c r="C190" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
-      <c r="A164" s="2" t="s">
+    <row r="191" spans="1:4" ht="15.75">
+      <c r="A191" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B191" s="2"/>
+      <c r="C191" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="45">
-      <c r="A165" s="2" t="s">
+    <row r="192" spans="1:4" ht="30">
+      <c r="A192" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B192" s="2"/>
+      <c r="C192" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="45">
-      <c r="A166" s="2" t="s">
+    <row r="193" spans="1:4" ht="15.75">
+      <c r="A193" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B193" s="2"/>
+      <c r="C193" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30">
-      <c r="A167" s="2" t="s">
+    <row r="194" spans="1:4" ht="30">
+      <c r="A194" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B194" s="2"/>
+      <c r="C194" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="60">
-      <c r="A168" s="2" t="s">
+    <row r="195" spans="1:4" ht="30">
+      <c r="A195" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B195" s="2"/>
+      <c r="C195" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="45">
-      <c r="A169" s="2" t="s">
+    <row r="196" spans="1:4" ht="30">
+      <c r="A196" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B196" s="2"/>
+      <c r="C196" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30">
-      <c r="A170" s="2" t="s">
+    <row r="197" spans="1:4" ht="60">
+      <c r="A197" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B197" s="2"/>
+      <c r="C197" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D197" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45">
-      <c r="A171" s="2" t="s">
+    <row r="198" spans="1:4" ht="30">
+      <c r="A198" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B198" s="2"/>
+      <c r="C198" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="45">
-      <c r="A172" s="2" t="s">
+    <row r="199" spans="1:4" ht="30">
+      <c r="A199" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B199" s="2"/>
+      <c r="C199" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30">
-      <c r="A173" s="2" t="s">
+    <row r="200" spans="1:4" ht="30">
+      <c r="A200" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B200" s="2"/>
+      <c r="C200" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30">
-      <c r="A174" s="2" t="s">
+    <row r="201" spans="1:4" ht="30">
+      <c r="A201" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B201" s="2"/>
+      <c r="C201" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
-      <c r="A175" s="2" t="s">
+    <row r="202" spans="1:4" ht="30">
+      <c r="A202" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B202" s="2"/>
+      <c r="C202" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
-      <c r="A176" s="2" t="s">
+    <row r="203" spans="1:4" ht="15.75">
+      <c r="A203" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B203" s="2"/>
+      <c r="C203" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30">
-      <c r="A177" s="2" t="s">
+    <row r="204" spans="1:4" ht="15.75">
+      <c r="A204" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B204" s="2"/>
+      <c r="C204" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="45">
-      <c r="A178" s="2" t="s">
+    <row r="205" spans="1:4" ht="30">
+      <c r="A205" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B205" s="2"/>
+      <c r="C205" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D205" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30">
-      <c r="A179" s="2" t="s">
+    <row r="206" spans="1:4" ht="30">
+      <c r="A206" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B206" s="2"/>
+      <c r="C206" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D206" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="60">
-      <c r="A180" s="2" t="s">
+    <row r="207" spans="1:4" ht="15.75">
+      <c r="A207" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B207" s="2"/>
+      <c r="C207" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="30">
-      <c r="A181" s="2" t="s">
+    <row r="208" spans="1:4" ht="30">
+      <c r="A208" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B208" s="2"/>
+      <c r="C208" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30">
-      <c r="A182" s="2" t="s">
+    <row r="209" spans="1:4" ht="30">
+      <c r="A209" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="30">
+      <c r="A210" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B210" s="2"/>
+      <c r="C210" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30">
-      <c r="A183" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="30">
-      <c r="A184" s="2" t="s">
+    <row r="211" spans="1:4" ht="30">
+      <c r="A211" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B211" s="2"/>
+      <c r="C211" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="45">
-      <c r="A185" s="2" t="s">
+    <row r="212" spans="1:4" ht="15.75">
+      <c r="A212" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B212" s="2"/>
+      <c r="C212" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30">
-      <c r="A186" s="2" t="s">
+    <row r="213" spans="1:4" ht="30">
+      <c r="A213" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B213" s="2"/>
+      <c r="C213" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D213" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="30">
-      <c r="A187" s="2" t="s">
+    <row r="214" spans="1:4" ht="30">
+      <c r="A214" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B214" s="2"/>
+      <c r="C214" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D214" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="60">
-      <c r="A188" s="2" t="s">
+    <row r="215" spans="1:4" ht="30">
+      <c r="A215" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B215" s="2"/>
+      <c r="C215" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D215" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="30">
-      <c r="A189" s="2" t="s">
+    <row r="216" spans="1:4" ht="15.75">
+      <c r="A216" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B216" s="2"/>
+      <c r="C216" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="30">
-      <c r="A190" s="2" t="s">
+    <row r="217" spans="1:4" ht="15.75">
+      <c r="A217" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B217" s="2"/>
+      <c r="C217" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="45">
-      <c r="A191" s="2" t="s">
+    <row r="218" spans="1:4" ht="15.75">
+      <c r="A218" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B218" s="2"/>
+      <c r="C218" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D218" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30">
-      <c r="A192" s="2" t="s">
+    <row r="219" spans="1:4" ht="30">
+      <c r="A219" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B219" s="2"/>
+      <c r="C219" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30">
-      <c r="A193" s="2" t="s">
+    <row r="220" spans="1:4" ht="30">
+      <c r="A220" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B220" s="2"/>
+      <c r="C220" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="45">
-      <c r="A194" s="2" t="s">
+    <row r="221" spans="1:4" ht="30">
+      <c r="A221" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B221" s="2"/>
+      <c r="C221" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D221" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30">
-      <c r="A195" s="2" t="s">
+    <row r="222" spans="1:4" ht="15.75">
+      <c r="A222" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B222" s="2"/>
+      <c r="C222" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="45">
-      <c r="A196" s="2" t="s">
+    <row r="223" spans="1:4" ht="30">
+      <c r="A223" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B223" s="2"/>
+      <c r="C223" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30">
-      <c r="A197" s="2" t="s">
+    <row r="224" spans="1:4" ht="45">
+      <c r="A224" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B224" s="2"/>
+      <c r="C224" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="45">
-      <c r="A198" s="2" t="s">
+    <row r="225" spans="1:4" ht="45">
+      <c r="A225" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="30">
+      <c r="A226" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B226" s="2"/>
+      <c r="C226" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="90">
-      <c r="A199" s="2" t="s">
+    <row r="227" spans="1:4" ht="15.75">
+      <c r="A227" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B227" s="2"/>
+      <c r="C227" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="D227" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45">
-      <c r="A200" s="2" t="s">
+    <row r="228" spans="1:4" ht="30">
+      <c r="A228" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B228" s="2"/>
+      <c r="C228" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D228" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="45">
-      <c r="A201" s="2" t="s">
+    <row r="229" spans="1:4" ht="30">
+      <c r="A229" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B229" s="2"/>
+      <c r="C229" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30">
-      <c r="A202" s="2" t="s">
+    <row r="230" spans="1:4" ht="15.75">
+      <c r="A230" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B230" s="2"/>
+      <c r="C230" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30">
-      <c r="A203" s="2" t="s">
+    <row r="231" spans="1:4" ht="30">
+      <c r="A231" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B231" s="2"/>
+      <c r="C231" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="45">
-      <c r="A204" s="2" t="s">
+    <row r="232" spans="1:4" ht="30">
+      <c r="A232" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B232" s="2"/>
+      <c r="C232" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30">
-      <c r="A205" s="2" t="s">
+    <row r="233" spans="1:4" ht="30">
+      <c r="A233" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B233" s="2"/>
+      <c r="C233" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30">
-      <c r="A206" s="2" t="s">
+    <row r="234" spans="1:4" ht="30">
+      <c r="A234" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B234" s="2"/>
+      <c r="C234" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="45">
-      <c r="A207" s="2" t="s">
+    <row r="235" spans="1:4" ht="15.75">
+      <c r="A235" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B235" s="2"/>
+      <c r="C235" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30">
-      <c r="A208" s="2" t="s">
+    <row r="236" spans="1:4" ht="30">
+      <c r="A236" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B236" s="2"/>
+      <c r="C236" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30">
-      <c r="A209" s="2" t="s">
+    <row r="237" spans="1:4" ht="30">
+      <c r="A237" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B237" s="2"/>
+      <c r="C237" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="45">
-      <c r="A210" s="2" t="s">
+    <row r="238" spans="1:4" ht="30">
+      <c r="A238" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B238" s="2"/>
+      <c r="C238" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="45">
-      <c r="A211" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="45">
-      <c r="A212" s="2" t="s">
+    <row r="239" spans="1:4" ht="15.75">
+      <c r="A239" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B239" s="2"/>
+      <c r="C239" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="45">
-      <c r="A213" s="2" t="s">
+    <row r="240" spans="1:4" ht="30">
+      <c r="A240" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B240" s="2"/>
+      <c r="C240" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30">
-      <c r="A214" s="2" t="s">
+    <row r="241" spans="1:4" ht="15.75">
+      <c r="A241" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B241" s="2"/>
+      <c r="C241" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="60">
-      <c r="A215" s="2" t="s">
+    <row r="242" spans="1:4" ht="30">
+      <c r="A242" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B242" s="2"/>
+      <c r="C242" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="45">
-      <c r="A216" s="2" t="s">
+    <row r="243" spans="1:4" ht="30">
+      <c r="A243" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B243" s="2"/>
+      <c r="C243" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="60">
-      <c r="A217" s="2" t="s">
+    <row r="244" spans="1:4" ht="30">
+      <c r="A244" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B244" s="2"/>
+      <c r="C244" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="30">
-      <c r="A218" s="2" t="s">
+    <row r="245" spans="1:4" ht="30">
+      <c r="A245" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B245" s="2"/>
+      <c r="C245" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="30">
-      <c r="A219" s="2" t="s">
+    <row r="246" spans="1:4" ht="30">
+      <c r="A246" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B246" s="2"/>
+      <c r="C246" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="30">
-      <c r="A220" s="2" t="s">
+    <row r="247" spans="1:4" ht="30">
+      <c r="A247" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B247" s="2"/>
+      <c r="C247" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="45">
-      <c r="A221" s="2" t="s">
+    <row r="248" spans="1:4" ht="15.75">
+      <c r="A248" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B248" s="2"/>
+      <c r="C248" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="45">
-      <c r="A222" s="2" t="s">
+    <row r="249" spans="1:4" ht="15.75">
+      <c r="A249" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B249" s="2"/>
+      <c r="C249" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="30">
-      <c r="A223" s="2" t="s">
+    <row r="250" spans="1:4" ht="15.75">
+      <c r="A250" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B250" s="2"/>
+      <c r="C250" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="30">
-      <c r="A224" s="2" t="s">
+    <row r="251" spans="1:4" ht="15.75">
+      <c r="A251" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B251" s="2"/>
+      <c r="C251" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="45">
-      <c r="A225" s="2" t="s">
+    <row r="252" spans="1:4" ht="15.75">
+      <c r="A252" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B252" s="2"/>
+      <c r="C252" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="75">
-      <c r="A226" s="2" t="s">
+    <row r="253" spans="1:4" ht="15.75">
+      <c r="A253" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B253" s="2"/>
+      <c r="C253" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="D253" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="75">
-      <c r="A227" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="45">
-      <c r="A228" s="2" t="s">
+    <row r="254" spans="1:4" ht="30">
+      <c r="A254" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B254" s="2"/>
+      <c r="C254" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="30">
-      <c r="A229" s="2" t="s">
+    <row r="255" spans="1:4" ht="15.75">
+      <c r="A255" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B255" s="2"/>
+      <c r="C255" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="30">
-      <c r="A230" s="2" t="s">
+    <row r="256" spans="1:4" ht="15.75">
+      <c r="A256" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B256" s="2"/>
+      <c r="C256" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="45">
-      <c r="A231" s="2" t="s">
+    <row r="257" spans="1:4" ht="45">
+      <c r="A257" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B257" s="2"/>
+      <c r="C257" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30">
-      <c r="A232" s="2" t="s">
+    <row r="258" spans="1:4" ht="15.75">
+      <c r="A258" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B258" s="2"/>
+      <c r="C258" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="45">
-      <c r="A233" s="2" t="s">
+    <row r="259" spans="1:4" ht="15.75">
+      <c r="A259" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B259" s="2"/>
+      <c r="C259" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="30">
-      <c r="A234" s="2" t="s">
+    <row r="260" spans="1:4" ht="30">
+      <c r="A260" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B260" s="2"/>
+      <c r="C260" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="45">
-      <c r="A235" s="2" t="s">
+    <row r="261" spans="1:4" ht="30">
+      <c r="A261" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B261" s="2"/>
+      <c r="C261" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C235" s="3" t="s">
+    </row>
+    <row r="262" spans="1:4" ht="30">
+      <c r="A262" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="30">
-      <c r="A236" s="2" t="s">
+      <c r="B262" s="2"/>
+      <c r="C262" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C236" s="3" t="s">
+    </row>
+    <row r="263" spans="1:4" ht="30">
+      <c r="A263" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="30">
-      <c r="A237" s="2" t="s">
+      <c r="B263" s="2"/>
+      <c r="C263" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C237" s="3" t="s">
+    </row>
+    <row r="264" spans="1:4" ht="30">
+      <c r="A264" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="45">
-      <c r="A238" s="2" t="s">
+      <c r="B264" s="2"/>
+      <c r="C264" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C238" s="3" t="s">
+    </row>
+    <row r="265" spans="1:4" ht="30">
+      <c r="A265" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="30">
-      <c r="A239" s="2" t="s">
+      <c r="B265" s="2"/>
+      <c r="C265" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C239" s="3" t="s">
+    </row>
+    <row r="266" spans="1:4" ht="30">
+      <c r="A266" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="45">
-      <c r="A240" s="2" t="s">
+      <c r="B266" s="2"/>
+      <c r="C266" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C240" s="3" t="s">
+    </row>
+    <row r="267" spans="1:4" ht="15.75">
+      <c r="A267" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="30">
-      <c r="A241" s="2" t="s">
+      <c r="B267" s="2"/>
+      <c r="C267" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="C241" s="3" t="s">
+    </row>
+    <row r="268" spans="1:4" ht="30">
+      <c r="A268" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="45">
-      <c r="A242" s="2" t="s">
+      <c r="B268" s="2"/>
+      <c r="C268" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C242" s="3" t="s">
+    </row>
+    <row r="269" spans="1:4" ht="30">
+      <c r="A269" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="30">
-      <c r="A243" s="2" t="s">
+      <c r="B269" s="2"/>
+      <c r="C269" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="D269" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C243" s="3" t="s">
+    </row>
+    <row r="270" spans="1:4" ht="30">
+      <c r="A270" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="45">
-      <c r="A244" s="2" t="s">
+      <c r="B270" s="2"/>
+      <c r="C270" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C244" s="3" t="s">
+    </row>
+    <row r="271" spans="1:4" ht="30">
+      <c r="A271" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="60">
-      <c r="A245" s="2" t="s">
+      <c r="B271" s="2"/>
+      <c r="C271" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C245" s="3" t="s">
+    </row>
+    <row r="272" spans="1:4" ht="45">
+      <c r="A272" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="45">
-      <c r="A246" s="2" t="s">
+      <c r="B272" s="2"/>
+      <c r="C272" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="D272" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="C246" s="3" t="s">
+    </row>
+    <row r="273" spans="1:4" ht="30">
+      <c r="A273" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="45">
-      <c r="A247" s="2" t="s">
+      <c r="B273" s="2"/>
+      <c r="C273" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C247" s="3" t="s">
+    </row>
+    <row r="274" spans="1:4" ht="15.75">
+      <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="30">
-      <c r="A248" s="2" t="s">
+      <c r="B274" s="2"/>
+      <c r="C274" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C248" s="3" t="s">
+    </row>
+    <row r="275" spans="1:4" ht="30">
+      <c r="A275" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="45">
-      <c r="A249" s="2" t="s">
+      <c r="B275" s="2"/>
+      <c r="C275" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C249" s="3" t="s">
+    </row>
+    <row r="276" spans="1:4" ht="15.75">
+      <c r="A276" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="30">
-      <c r="A250" s="2" t="s">
+      <c r="B276" s="2"/>
+      <c r="C276" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C250" s="3" t="s">
+    </row>
+    <row r="277" spans="1:4" ht="30">
+      <c r="A277" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="30">
-      <c r="A251" s="2" t="s">
+      <c r="B277" s="2"/>
+      <c r="C277" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C251" s="3" t="s">
+    </row>
+    <row r="278" spans="1:4" ht="30">
+      <c r="A278" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="30">
-      <c r="A252" s="2" t="s">
+      <c r="B278" s="2"/>
+      <c r="C278" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C252" s="3" t="s">
+    </row>
+    <row r="279" spans="1:4" ht="30">
+      <c r="A279" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="30">
-      <c r="A253" s="2" t="s">
+      <c r="B279" s="2"/>
+      <c r="C279" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C253" s="3" t="s">
+    </row>
+    <row r="280" spans="1:4" ht="30">
+      <c r="A280" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="30">
+      <c r="A281" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="30">
-      <c r="A254" s="2" t="s">
+      <c r="B281" s="2"/>
+      <c r="C281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C254" s="3" t="s">
+    </row>
+    <row r="282" spans="1:4" ht="30">
+      <c r="A282" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="30">
-      <c r="A255" s="2" t="s">
+      <c r="B282" s="2"/>
+      <c r="C282" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C255" s="3" t="s">
+    </row>
+    <row r="283" spans="1:4" ht="30">
+      <c r="A283" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="60">
-      <c r="A256" s="2" t="s">
+      <c r="B283" s="2"/>
+      <c r="C283" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C256" s="3" t="s">
+    </row>
+    <row r="284" spans="1:4" ht="15.75">
+      <c r="A284" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="30">
-      <c r="A257" s="2" t="s">
+      <c r="B284" s="2"/>
+      <c r="C284" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C257" s="3" t="s">
+    </row>
+    <row r="285" spans="1:4" ht="30">
+      <c r="A285" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="30">
-      <c r="A258" s="2" t="s">
+      <c r="B285" s="2"/>
+      <c r="C285" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="D285" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C258" s="3" t="s">
+    </row>
+    <row r="286" spans="1:4" ht="30">
+      <c r="A286" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="60">
-      <c r="A259" s="2" t="s">
+      <c r="B286" s="2"/>
+      <c r="C286" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="C259" s="3" t="s">
+    </row>
+    <row r="287" spans="1:4" ht="30">
+      <c r="A287" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="30">
-      <c r="A260" s="2" t="s">
+      <c r="B287" s="2"/>
+      <c r="C287" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="3" t="s">
+    </row>
+    <row r="288" spans="1:4" ht="30">
+      <c r="A288" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="30">
-      <c r="A261" s="2" t="s">
+      <c r="B288" s="2"/>
+      <c r="C288" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="3" t="s">
+    </row>
+    <row r="289" spans="1:4" ht="15.75">
+      <c r="A289" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="60">
-      <c r="A262" s="2" t="s">
+      <c r="B289" s="2"/>
+      <c r="C289" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C262" s="3" t="s">
+    </row>
+    <row r="290" spans="1:4" ht="30">
+      <c r="A290" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="30">
-      <c r="A263" s="2" t="s">
+      <c r="B290" s="2"/>
+      <c r="C290" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C263" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="60">
-      <c r="A264" s="2" t="s">
+    <row r="291" spans="1:4" ht="30">
+      <c r="A291" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B291" s="2"/>
+      <c r="C291" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="30">
-      <c r="A265" s="2" t="s">
+    <row r="292" spans="1:4" ht="15.75">
+      <c r="A292" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B292" s="2"/>
+      <c r="C292" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="45">
-      <c r="A266" s="2" t="s">
+    <row r="293" spans="1:4" ht="15.75">
+      <c r="A293" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B293" s="2"/>
+      <c r="C293" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="30">
-      <c r="A267" s="2" t="s">
+    <row r="294" spans="1:4" ht="30">
+      <c r="A294" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B294" s="2"/>
+      <c r="C294" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="45">
-      <c r="A268" s="2" t="s">
+    <row r="295" spans="1:4" ht="15.75">
+      <c r="A295" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B295" s="2"/>
+      <c r="C295" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="30">
-      <c r="A269" s="2" t="s">
+    <row r="296" spans="1:4" ht="30">
+      <c r="A296" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B296" s="2"/>
+      <c r="C296" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="60">
-      <c r="A270" s="2" t="s">
+    <row r="297" spans="1:4" ht="30">
+      <c r="A297" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B297" s="2"/>
+      <c r="C297" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="60">
-      <c r="A271" s="2" t="s">
+    <row r="298" spans="1:4" ht="45">
+      <c r="A298" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B298" s="2"/>
+      <c r="C298" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="45">
-      <c r="A272" s="2" t="s">
+    <row r="299" spans="1:4" ht="30">
+      <c r="A299" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B299" s="2"/>
+      <c r="C299" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="45">
-      <c r="A273" s="2" t="s">
+    <row r="300" spans="1:4" ht="30">
+      <c r="A300" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B300" s="2"/>
+      <c r="C300" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D300" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="75">
-      <c r="A274" s="2" t="s">
+    <row r="301" spans="1:4" ht="30">
+      <c r="A301" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B301" s="2"/>
+      <c r="C301" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="45">
-      <c r="A275" s="2" t="s">
+    <row r="302" spans="1:4" ht="30">
+      <c r="A302" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B302" s="2"/>
+      <c r="C302" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="30">
-      <c r="A276" s="2" t="s">
+    <row r="303" spans="1:4" ht="30">
+      <c r="A303" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B303" s="2"/>
+      <c r="C303" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="45">
-      <c r="A277" s="2" t="s">
+    <row r="304" spans="1:4" ht="30">
+      <c r="A304" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B304" s="2"/>
+      <c r="C304" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="30">
-      <c r="A278" s="2" t="s">
+    <row r="305" spans="1:4" ht="15.75">
+      <c r="A305" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B305" s="2"/>
+      <c r="C305" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="45">
-      <c r="A279" s="2" t="s">
+    <row r="306" spans="1:4" ht="45">
+      <c r="A306" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B306" s="2"/>
+      <c r="C306" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="45">
-      <c r="A280" s="2" t="s">
+    <row r="307" spans="1:4" ht="15.75">
+      <c r="A307" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B307" s="2"/>
+      <c r="C307" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="45">
-      <c r="A281" s="2" t="s">
+    <row r="308" spans="1:4" ht="15.75">
+      <c r="A308" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B308" s="2"/>
+      <c r="C308" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45">
-      <c r="A282" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="45">
-      <c r="A283" s="2" t="s">
+    <row r="309" spans="1:4" ht="30">
+      <c r="A309" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B309" s="2"/>
+      <c r="C309" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="45">
-      <c r="A284" s="2" t="s">
+    <row r="310" spans="1:4" ht="30">
+      <c r="A310" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B310" s="2"/>
+      <c r="C310" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="30">
-      <c r="A285" s="2" t="s">
+    <row r="311" spans="1:4" ht="31.5">
+      <c r="A311" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B311" s="2"/>
+      <c r="C311" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="45">
-      <c r="A286" s="2" t="s">
+    <row r="312" spans="1:4" ht="30">
+      <c r="A312" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B312" s="2"/>
+      <c r="C312" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="45">
-      <c r="A287" s="2" t="s">
+    <row r="313" spans="1:4" ht="30">
+      <c r="A313" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B313" s="2"/>
+      <c r="C313" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="45">
-      <c r="A288" s="2" t="s">
+    <row r="314" spans="1:4" ht="30">
+      <c r="A314" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B314" s="2"/>
+      <c r="C314" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="60">
-      <c r="A289" s="2" t="s">
+    <row r="315" spans="1:4" ht="30">
+      <c r="A315" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B315" s="2"/>
+      <c r="C315" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="45">
-      <c r="A290" s="2" t="s">
+    <row r="316" spans="1:4" ht="30">
+      <c r="A316" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B316" s="2"/>
+      <c r="C316" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="30">
-      <c r="A291" s="2" t="s">
+    <row r="317" spans="1:4" ht="30">
+      <c r="A317" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B317" s="2"/>
+      <c r="C317" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="45">
-      <c r="A292" s="2" t="s">
+    <row r="318" spans="1:4" ht="30">
+      <c r="A318" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B318" s="2"/>
+      <c r="C318" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="45">
-      <c r="A293" s="2" t="s">
+    <row r="319" spans="1:4" ht="30">
+      <c r="A319" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B319" s="2"/>
+      <c r="C319" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="30">
-      <c r="A294" s="2" t="s">
+    <row r="320" spans="1:4" ht="45">
+      <c r="A320" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B320" s="2"/>
+      <c r="C320" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="30">
-      <c r="A295" s="2" t="s">
+    <row r="321" spans="1:4" ht="15.75">
+      <c r="A321" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B321" s="2"/>
+      <c r="C321" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="45">
-      <c r="A296" s="2" t="s">
+    <row r="322" spans="1:4" ht="30">
+      <c r="A322" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B322" s="2"/>
+      <c r="C322" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="30">
-      <c r="A297" s="2" t="s">
+    <row r="323" spans="1:4" ht="75">
+      <c r="A323" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B323" s="2"/>
+      <c r="C323" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="D323" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="30">
-      <c r="A298" s="2" t="s">
+    <row r="324" spans="1:4" ht="15.75">
+      <c r="A324" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B324" s="2"/>
+      <c r="C324" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="60">
-      <c r="A299" s="2" t="s">
+    <row r="325" spans="1:4" ht="30">
+      <c r="A325" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B325" s="2"/>
+      <c r="C325" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="75">
-      <c r="A300" s="2" t="s">
+    <row r="326" spans="1:4" ht="30">
+      <c r="A326" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B326" s="2"/>
+      <c r="C326" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="30">
-      <c r="A301" s="2" t="s">
+    <row r="327" spans="1:4" ht="15.75">
+      <c r="A327" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B327" s="2"/>
+      <c r="C327" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="60">
-      <c r="A302" s="2" t="s">
+    <row r="328" spans="1:4" ht="15.75">
+      <c r="A328" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B328" s="2"/>
+      <c r="C328" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="30">
-      <c r="A303" s="2" t="s">
+    <row r="329" spans="1:4" ht="30">
+      <c r="A329" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B329" s="2"/>
+      <c r="C329" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="60">
-      <c r="A304" s="2" t="s">
+    <row r="330" spans="1:4" ht="15.75">
+      <c r="A330" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B330" s="2"/>
+      <c r="C330" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="45">
-      <c r="A305" s="2" t="s">
+    <row r="331" spans="1:4" ht="30">
+      <c r="A331" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B331" s="2"/>
+      <c r="C331" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="45">
-      <c r="A306" s="2" t="s">
+    <row r="332" spans="1:4" ht="30">
+      <c r="A332" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B332" s="2"/>
+      <c r="C332" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="30">
-      <c r="A307" s="2" t="s">
+    <row r="333" spans="1:4" ht="45">
+      <c r="A333" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B333" s="2"/>
+      <c r="C333" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D333" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="75">
-      <c r="A308" s="2" t="s">
+    <row r="334" spans="1:4" ht="30">
+      <c r="A334" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B334" s="2"/>
+      <c r="C334" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="30">
-      <c r="A309" s="2" t="s">
+    <row r="335" spans="1:4" ht="30">
+      <c r="A335" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B335" s="2"/>
+      <c r="C335" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="30">
-      <c r="A310" s="2" t="s">
+    <row r="336" spans="1:4" ht="30">
+      <c r="A336" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B336" s="2"/>
+      <c r="C336" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="45">
-      <c r="A311" s="2" t="s">
+    <row r="337" spans="1:4" ht="15.75">
+      <c r="A337" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B337" s="2"/>
+      <c r="C337" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="45">
-      <c r="A312" s="2" t="s">
+    <row r="338" spans="1:4" ht="15.75">
+      <c r="A338" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B338" s="2"/>
+      <c r="C338" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="60">
-      <c r="A313" s="2" t="s">
+    <row r="339" spans="1:4" ht="30">
+      <c r="A339" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B339" s="2"/>
+      <c r="C339" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="60">
-      <c r="A314" s="2" t="s">
+    <row r="340" spans="1:4" ht="30">
+      <c r="A340" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B340" s="2"/>
+      <c r="C340" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="60">
-      <c r="A315" s="2" t="s">
+    <row r="341" spans="1:4" ht="15.75">
+      <c r="A341" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B341" s="2"/>
+      <c r="C341" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="45">
-      <c r="A316" s="2" t="s">
+    <row r="342" spans="1:4" ht="30">
+      <c r="A342" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B342" s="2"/>
+      <c r="C342" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D342" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="60">
-      <c r="A317" s="2" t="s">
+    <row r="343" spans="1:4" ht="30">
+      <c r="A343" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B343" s="2"/>
+      <c r="C343" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D343" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="45">
-      <c r="A318" s="2" t="s">
+    <row r="344" spans="1:4" ht="45">
+      <c r="A344" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B344" s="2"/>
+      <c r="C344" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D344" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="60">
-      <c r="A319" s="2" t="s">
+    <row r="345" spans="1:4" ht="15.75">
+      <c r="A345" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B345" s="2"/>
+      <c r="C345" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="60">
-      <c r="A320" s="2" t="s">
+    <row r="346" spans="1:4" ht="30">
+      <c r="A346" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B346" s="2"/>
+      <c r="C346" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="D346" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="45">
-      <c r="A321" s="2" t="s">
+    <row r="347" spans="1:4" ht="30">
+      <c r="A347" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B347" s="2"/>
+      <c r="C347" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="D347" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="30">
-      <c r="A322" s="2" t="s">
+    <row r="348" spans="1:4" ht="30">
+      <c r="A348" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B348" s="2"/>
+      <c r="C348" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="30">
-      <c r="A323" s="2" t="s">
+    <row r="349" spans="1:4" ht="30">
+      <c r="A349" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B349" s="2"/>
+      <c r="C349" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D349" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="45">
-      <c r="A324" s="2" t="s">
+    <row r="350" spans="1:4" ht="30">
+      <c r="A350" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B350" s="2"/>
+      <c r="C350" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D350" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="135">
-      <c r="A325" s="2" t="s">
+    <row r="351" spans="1:4" ht="60">
+      <c r="A351" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B351" s="2"/>
+      <c r="C351" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="D351" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="30">
-      <c r="A326" s="2" t="s">
+    <row r="352" spans="1:4" ht="15.75">
+      <c r="A352" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B352" s="2"/>
+      <c r="C352" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D352" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="60">
-      <c r="A327" s="2" t="s">
+    <row r="353" spans="1:4" ht="30">
+      <c r="A353" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B353" s="2"/>
+      <c r="C353" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D353" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="45">
-      <c r="A328" s="2" t="s">
+    <row r="354" spans="1:4" ht="30">
+      <c r="A354" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B354" s="2"/>
+      <c r="C354" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D354" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="45">
-      <c r="A329" s="2" t="s">
+    <row r="355" spans="1:4" ht="30">
+      <c r="A355" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B355" s="2"/>
+      <c r="C355" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D355" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="30">
-      <c r="A330" s="2" t="s">
+    <row r="356" spans="1:4" ht="30">
+      <c r="A356" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B356" s="2"/>
+      <c r="C356" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D356" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="60">
-      <c r="A331" s="2" t="s">
+    <row r="357" spans="1:4" ht="30">
+      <c r="A357" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B357" s="2"/>
+      <c r="C357" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D357" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="30">
-      <c r="A332" s="2" t="s">
+    <row r="358" spans="1:4" ht="30">
+      <c r="A358" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B358" s="2"/>
+      <c r="C358" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="45">
-      <c r="A333" s="2" t="s">
+    <row r="359" spans="1:4" ht="30">
+      <c r="A359" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B359" s="2"/>
+      <c r="C359" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D359" s="3" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="45">
-      <c r="A334" s="2" t="s">
+    <row r="360" spans="1:4" ht="30">
+      <c r="A360" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B360" s="2"/>
+      <c r="C360" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D360" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="90">
-      <c r="A335" s="2" t="s">
+    <row r="361" spans="1:4" ht="30">
+      <c r="A361" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B361" s="2"/>
+      <c r="C361" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="D361" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="45">
-      <c r="A336" s="2" t="s">
+    <row r="362" spans="1:4" ht="30">
+      <c r="A362" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B362" s="2"/>
+      <c r="C362" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D362" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="45">
-      <c r="A337" s="2" t="s">
+    <row r="363" spans="1:4" ht="30">
+      <c r="A363" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B363" s="2"/>
+      <c r="C363" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="45">
-      <c r="A338" s="2" t="s">
+    <row r="364" spans="1:4" ht="30">
+      <c r="A364" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B364" s="2"/>
+      <c r="C364" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="30">
-      <c r="A339" s="2" t="s">
+    <row r="365" spans="1:4" ht="30">
+      <c r="A365" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B365" s="2"/>
+      <c r="C365" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D365" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="30">
-      <c r="A340" s="2" t="s">
+    <row r="366" spans="1:4" ht="45">
+      <c r="A366" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B366" s="2"/>
+      <c r="C366" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D366" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="45">
-      <c r="A341" s="2" t="s">
+    <row r="367" spans="1:4" ht="30">
+      <c r="A367" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B367" s="2"/>
+      <c r="C367" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D367" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="45">
-      <c r="A342" s="2" t="s">
+    <row r="368" spans="1:4" ht="30">
+      <c r="A368" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B368" s="2"/>
+      <c r="C368" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D368" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="30">
-      <c r="A343" s="2" t="s">
+    <row r="369" spans="1:4" ht="30">
+      <c r="A369" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B369" s="2"/>
+      <c r="C369" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D369" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="60">
-      <c r="A344" s="2" t="s">
+    <row r="370" spans="1:4" ht="30">
+      <c r="A370" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B370" s="2"/>
+      <c r="C370" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="D370" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="45">
-      <c r="A345" s="2" t="s">
+    <row r="371" spans="1:4" ht="30">
+      <c r="A371" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B371" s="2"/>
+      <c r="C371" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="D371" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="60">
-      <c r="A346" s="2" t="s">
+    <row r="372" spans="1:4" ht="15.75">
+      <c r="A372" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B372" s="2"/>
+      <c r="C372" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="D372" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="30">
-      <c r="A347" s="2" t="s">
+    <row r="373" spans="1:4" ht="15.75">
+      <c r="A373" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B373" s="2"/>
+      <c r="C373" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="D373" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="45">
-      <c r="A348" s="2" t="s">
+    <row r="374" spans="1:4" ht="30">
+      <c r="A374" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B374" s="2"/>
+      <c r="C374" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D374" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="45">
-      <c r="A349" s="2" t="s">
+    <row r="375" spans="1:4" ht="30">
+      <c r="A375" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B375" s="2"/>
+      <c r="C375" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="D375" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="45">
-      <c r="A350" s="2" t="s">
+    <row r="376" spans="1:4" ht="45">
+      <c r="A376" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B376" s="2"/>
+      <c r="C376" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="D376" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="45">
-      <c r="A351" s="2" t="s">
+    <row r="377" spans="1:4" ht="30">
+      <c r="A377" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B377" s="2"/>
+      <c r="C377" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D377" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="45">
-      <c r="A352" s="2" t="s">
+    <row r="378" spans="1:4" ht="15.75">
+      <c r="A378" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B378" s="2"/>
+      <c r="C378" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="D378" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="60">
-      <c r="A353" s="2" t="s">
+    <row r="379" spans="1:4" ht="15.75">
+      <c r="A379" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B379" s="2"/>
+      <c r="C379" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="D379" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="30">
-      <c r="A354" s="2" t="s">
+    <row r="380" spans="1:4" ht="30">
+      <c r="A380" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B380" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="45">
-      <c r="A355" s="2" t="s">
+    <row r="381" spans="1:4" ht="30">
+      <c r="A381" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B381" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C355" s="3" t="s">
+    </row>
+    <row r="382" spans="1:4" ht="15.75">
+      <c r="A382" s="2" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" ht="60">
-      <c r="A356" s="2" t="s">
+      <c r="B382" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C382" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="D382" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="C356" s="3" t="s">
+    </row>
+    <row r="383" spans="1:4" ht="21" customHeight="1">
+      <c r="A383" s="2" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="45">
-      <c r="A357" s="2" t="s">
+      <c r="B383" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="D383" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="C357" s="3" t="s">
+    </row>
+    <row r="384" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A384" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="45">
-      <c r="A358" s="2" t="s">
+      <c r="D384" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="B358" s="3" t="s">
+    </row>
+    <row r="385" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A385" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D385" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C358" s="3" t="s">
+    </row>
+    <row r="386" spans="1:4" ht="30">
+      <c r="A386" s="2" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="45">
-      <c r="A359" s="2" t="s">
+      <c r="B386" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B359" s="3" t="s">
+    </row>
+    <row r="387" spans="1:4" ht="45">
+      <c r="A387" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="B387" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="45">
-      <c r="A360" s="2" t="s">
+    <row r="388" spans="1:4" ht="15.75">
+      <c r="A388" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B388" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C388" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="D388" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="45">
-      <c r="A361" s="2" t="s">
+    <row r="389" spans="1:4" ht="45">
+      <c r="A389" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C389" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="D389" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="C361" s="3" t="s">
+    </row>
+    <row r="390" spans="1:4" ht="30">
+      <c r="A390" s="2" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="45">
-      <c r="A362" s="2" t="s">
+      <c r="B390" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D390" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B362" s="3" t="s">
+    </row>
+    <row r="391" spans="1:4" ht="30">
+      <c r="A391" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="B391" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="60">
-      <c r="A363" s="2" t="s">
+      <c r="D391" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B363" s="3" t="s">
+    </row>
+    <row r="392" spans="1:4" ht="30">
+      <c r="A392" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="B392" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="45">
-      <c r="A364" s="2" t="s">
+    <row r="393" spans="1:4" ht="31.5">
+      <c r="A393" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B393" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D393" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="45">
-      <c r="A365" s="2" t="s">
+    <row r="394" spans="1:4" ht="30">
+      <c r="A394" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="D394" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="C365" s="3" t="s">
+    </row>
+    <row r="395" spans="1:4" ht="31.5">
+      <c r="A395" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="45">
-      <c r="A366" s="2" t="s">
+      <c r="D395" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B366" s="3" t="s">
+    </row>
+    <row r="396" spans="1:4" ht="30">
+      <c r="A396" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="B396" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C396" s="3" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="45">
-      <c r="A367" s="2" t="s">
+      <c r="D396" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B367" s="3" t="s">
+    </row>
+    <row r="397" spans="1:4" ht="31.5">
+      <c r="A397" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D397" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="75">
-      <c r="A368" s="2" t="s">
+    <row r="398" spans="1:4" ht="31.5">
+      <c r="A398" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="D398" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C368" s="3" t="s">
+    </row>
+    <row r="399" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A399" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="60">
-      <c r="A369" s="2" t="s">
+      <c r="D399" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B369" s="3" t="s">
+    </row>
+    <row r="400" spans="1:4" ht="30">
+      <c r="A400" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="B400" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D400" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="45">
-      <c r="A370" s="2" t="s">
+    <row r="401" spans="1:4" ht="45">
+      <c r="A401" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B401" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D401" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C370" s="3" t="s">
+    </row>
+    <row r="402" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A402" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="45">
-      <c r="A371" s="2" t="s">
+      <c r="D402" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B371" s="3" t="s">
+    </row>
+    <row r="403" spans="1:4" ht="30">
+      <c r="A403" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="B403" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="45">
-      <c r="A372" s="2" t="s">
+    <row r="404" spans="1:4" ht="30">
+      <c r="A404" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B404" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="D404" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="45">
-      <c r="A373" s="2" t="s">
+    <row r="405" spans="1:4" ht="45">
+      <c r="A405" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B405" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D405" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C373" s="3" t="s">
+    </row>
+    <row r="406" spans="1:4" ht="30">
+      <c r="A406" s="2" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="30">
-      <c r="A374" s="2" t="s">
+      <c r="B406" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="D406" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="C374" s="3" t="s">
+    </row>
+    <row r="407" spans="1:4" ht="30">
+      <c r="A407" s="2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="30">
-      <c r="A375" s="2" t="s">
+      <c r="B407" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="D407" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C375" s="3" t="s">
+    </row>
+    <row r="408" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A408" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="45">
-      <c r="A376" s="2" t="s">
+      <c r="D408" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B376" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="60">
-      <c r="A377" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="75">
-      <c r="A378" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="45">
-      <c r="A379" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="30">
-      <c r="A380" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="30">
-      <c r="A381" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="45">
-      <c r="A382" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="45">
-      <c r="A383" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="30">
-      <c r="A384" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="30">
-      <c r="A385" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="45">
-      <c r="A386" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="60">
-      <c r="A387" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="45">
-      <c r="A388" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="60">
-      <c r="A389" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="30">
-      <c r="A390" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="60">
-      <c r="A391" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="45">
-      <c r="A392" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="45">
-      <c r="A393" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="45">
-      <c r="A394" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="60">
-      <c r="A395" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="45">
-      <c r="A396" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="45">
-      <c r="A397" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="30">
-      <c r="A398" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="30">
-      <c r="A399" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="45">
-      <c r="A400" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="30">
-      <c r="A401" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="45">
-      <c r="A402" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="45">
-      <c r="A403" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="45">
-      <c r="A404" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="45">
-      <c r="A405" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="60">
-      <c r="A406" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="30">
-      <c r="A407" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="45">
-      <c r="A408" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="30">
-      <c r="A409" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="45">
-      <c r="A410" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>1209</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D409">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GRE/词汇/要你命三千系列/magoosh剔除3000的单词.xlsx
+++ b/GRE/词汇/要你命三千系列/magoosh剔除3000的单词.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1679">
   <si>
     <t>aberration</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>Gary one day had an epiphany that he was a people person; he prompty quit his factory job and began working as a salesman.</t>
   </si>
   <si>
-    <t>eponym</t>
-  </si>
-  <si>
     <t>Alexandria, Egypt is an eponym because it is named after Alexander the Great.</t>
   </si>
   <si>
@@ -2880,27 +2877,18 @@
     <t>remonstrate</t>
   </si>
   <si>
-    <t>verb: to make objections while pleading</t>
-  </si>
-  <si>
     <t>The mothers of the kidnapped victims remonstrated to the rogue government to release their children, claiming that the detention violated human rights.</t>
   </si>
   <si>
     <t>reprisal</t>
   </si>
   <si>
-    <t>noun: a retaliatory action against an enemy in wartime</t>
-  </si>
-  <si>
     <t>The Old Testament doctrine of an eye for an eye is not the kind of retaliation practiced in war; rather, an arm, a leg, and both ears are the reprisal for the smallest scratch.</t>
   </si>
   <si>
     <t>reservation</t>
   </si>
   <si>
-    <t>noun: an unstated doubt that prevents you from accepting something wholeheartedly</t>
-  </si>
-  <si>
     <t>I was initially excited by the idea of a trip to Washington, D.C. but now that I have read about the high crime statistics there, I have some reservations.</t>
   </si>
   <si>
@@ -2922,91 +2910,51 @@
     <t>After much thought, Ted resolved not to travel abroad this summer because he didn't have much money in his bank account.</t>
   </si>
   <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>noun: some saved material that can be used for a purpose (especially money, anything used to make energy such as oil, or information sources such as books)</t>
-  </si>
-  <si>
-    <t>Many of the richest countries have surprisingly few natural resources and must buy oil or gas from other countries._x000D_
- Never forget to make use of the library during your studies; it's full of great resources.</t>
-  </si>
-  <si>
     <t>resurgent</t>
   </si>
   <si>
-    <t>adjective: rising again as to new life and vigor</t>
-  </si>
-  <si>
     <t>The team sank to fourth place in June, but is now resurgent and about to win the division.</t>
   </si>
   <si>
     <t>retiring</t>
   </si>
   <si>
-    <t>adjective: to be shy, and to be inclined to retract from company</t>
-  </si>
-  <si>
     <t>Nelson was always the first to leave soirees—rather than mill about with “fashionable” folk, he was retiring, and preferred the solitude of his garret.</t>
   </si>
   <si>
     <t>reverent</t>
   </si>
   <si>
-    <t>adjective: feeling or showing profound respect or veneration</t>
-  </si>
-  <si>
     <t>The professor could speak objectively about the other composers, but he always lectured about Brahms with a particularly reverent air, unable to offer a single criticism of his compositions.</t>
   </si>
   <si>
     <t>row</t>
   </si>
   <si>
-    <t>noun: an angry dispute</t>
-  </si>
-  <si>
     <t>The Prime Minister looked very foolish after his row with the foreign dignitary was caught on video and posted on youtube.</t>
   </si>
   <si>
     <t>sagacious</t>
   </si>
   <si>
-    <t>adjective: having good judgement and acute insight</t>
-  </si>
-  <si>
     <t>Steve Jobs is surely one of the most sagacious CEOs, making Apple the most recognizable and valuable companies in the world.</t>
   </si>
   <si>
     <t>sangfroid</t>
   </si>
   <si>
-    <t>noun: calmness or poise in difficult situations</t>
-  </si>
-  <si>
     <t>The hostage negotiator exhibited a sangfroid that oftentimes was more menacing than the sword at his throat, or the gun at his head.</t>
   </si>
   <si>
-    <t>sardonic</t>
-  </si>
-  <si>
-    <t>adjective: disdainfully or ironically humorous; scornful and mocking</t>
-  </si>
-  <si>
     <t>A stand-up comedian walks a fine line when making jokes about members of the audience; such fun and joking can quickly become sardonic and cutting.</t>
   </si>
   <si>
-    <t>schadenfreude</t>
-  </si>
-  <si>
     <t>noun: joy from watching the suffering of others</t>
   </si>
   <si>
     <t>From his warm apartment window, Stanley reveled in schadenfreude as he laughed at the figures below, huddled together in the arctic chill.</t>
   </si>
   <si>
-    <t>scintillating</t>
-  </si>
-  <si>
     <t>adjective: describes someone who is brilliant and lively</t>
   </si>
   <si>
@@ -3016,9 +2964,6 @@
     <t>screed</t>
   </si>
   <si>
-    <t>noun: an abusive rant (often tedious)</t>
-  </si>
-  <si>
     <t>Joey had difficulty hanging out with his former best friend Perry, who, during his entire cup of coffee, enumerated all of the government’s deficiencies--only to break ranks and launch into some screed against big business.</t>
   </si>
   <si>
@@ -3034,9 +2979,6 @@
     <t>semblance</t>
   </si>
   <si>
-    <t>noun: an outward or token appearance or form that is deliberately misleading</t>
-  </si>
-  <si>
     <t>While the banker maintained a semblance of respectability in public, those who knew him well were familiar with his many crimes.</t>
   </si>
   <si>
@@ -3059,10 +3001,6 @@
   </si>
   <si>
     <t>simulacrum</t>
-  </si>
-  <si>
-    <t>noun: a representation of a person (especially in the form of sculpture)_x000D_
-noun: a bad imitation</t>
   </si>
   <si>
     <t>The Shanghai Urban Planning Exhibition Center showcases a simulacrum of all the present and approved buildings in the city of Shanghai._x000D_
@@ -3072,33 +3010,21 @@
     <t>slapdash</t>
   </si>
   <si>
-    <t>adjective: carelessly and hastily put together</t>
-  </si>
-  <si>
     <t>The office building had been constructed in a slapdash manner, so it did not surprise officials when, during a small earthquake, a large crack emerged on the fa ade of the building.</t>
   </si>
   <si>
     <t>snide</t>
   </si>
   <si>
-    <t>adjective: expressive of contempt; derogatory or mocking in an indirect way</t>
-  </si>
-  <si>
     <t>The chairman interpreted Taylor's question about promotions as a snide remark, but in all innocence Taylor was trying to figure out the company's process.</t>
   </si>
   <si>
-    <t>solecism</t>
-  </si>
-  <si>
     <t>noun: a socially awkward or tactless act</t>
   </si>
   <si>
     <t>Mother Anna was always on guard against any solecism from her children and scolded them immediately if any of them talked out of place in public.</t>
   </si>
   <si>
-    <t>solicitude</t>
-  </si>
-  <si>
     <t>noun: a feeling of excessive concern</t>
   </si>
   <si>
@@ -3115,9 +3041,6 @@
   </si>
   <si>
     <t>staid</t>
-  </si>
-  <si>
-    <t>adjective: characterized by dignity and propriety</t>
   </si>
   <si>
     <t>Frank came from a staid environment, so he was shocked that his college roommate sold narcotics.</t>
@@ -3170,9 +3093,6 @@
     <t>The ruling political party has begun a campaign to shut down subversive websites that it deems as a threat to "national safety."</t>
   </si>
   <si>
-    <t>telltale</t>
-  </si>
-  <si>
     <t>adjective: revealing</t>
   </si>
   <si>
@@ -3180,9 +3100,6 @@
   </si>
   <si>
     <t>temperance</t>
-  </si>
-  <si>
-    <t>noun: the trait of avoiding excesses</t>
   </si>
   <si>
     <t>Welles wasn't known for his temperance--he usually ate enough for two and drank enough for three.</t>
@@ -4350,6 +4267,927 @@
   </si>
   <si>
     <t>缓和的</t>
+  </si>
+  <si>
+    <t>noun: the traitn. 特性，特点；品质；少许 of avoiding excesses</t>
+  </si>
+  <si>
+    <t>节欲</t>
+  </si>
+  <si>
+    <t>揭示的</t>
+  </si>
+  <si>
+    <t>颠覆的</t>
+  </si>
+  <si>
+    <t>包含
+归入</t>
+  </si>
+  <si>
+    <t>定期津贴</t>
+  </si>
+  <si>
+    <t>阻止；限制</t>
+  </si>
+  <si>
+    <t>躲开</t>
+  </si>
+  <si>
+    <t>adjective: characterized by dignity n. 尊严；高贵 and propriety</t>
+  </si>
+  <si>
+    <t>有尊严的；高贵的</t>
+  </si>
+  <si>
+    <t>焦虑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solicitude
+ [sə'lɪsɪtjuːd] </t>
+  </si>
+  <si>
+    <t>telltale
+ ['telteɪl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solecism
+['sɒlɪsɪz(ə)m] </t>
+  </si>
+  <si>
+    <t>失礼</t>
+  </si>
+  <si>
+    <t>adjective: expressive of contempt轻视，蔑视；耻辱; derogatory adj. 贬损的 or mocking in an indirect way</t>
+  </si>
+  <si>
+    <t>暗讽的</t>
+  </si>
+  <si>
+    <t>adjective: carelessly and hastily adv. 匆忙地；急速地；慌忙地 put together</t>
+  </si>
+  <si>
+    <t>仓促的</t>
+  </si>
+  <si>
+    <t>noun: a representation  代表；表现；表示法；陈述 of a person (especially in the form of sculpture雕塑；雕刻；刻蚀)_x000D_
+noun: a bad imitation</t>
+  </si>
+  <si>
+    <t>像</t>
+  </si>
+  <si>
+    <t>多愁善感的</t>
+  </si>
+  <si>
+    <t>警句的</t>
+  </si>
+  <si>
+    <t>eponym
+['epənɪm]</t>
+  </si>
+  <si>
+    <t>noun: an outward  向外的；外面的；公开的；外服的；肉体的 or token appearance or form that is deliberately misleading</t>
+  </si>
+  <si>
+    <t>假象</t>
+  </si>
+  <si>
+    <t>不爱出风头的</t>
+  </si>
+  <si>
+    <t>noun: an abusive rant 激昂的演说 (often tedious沉闷的；冗长乏味的)</t>
+  </si>
+  <si>
+    <t>冗长的演说</t>
+  </si>
+  <si>
+    <t>才华横溢的</t>
+  </si>
+  <si>
+    <t>幸灾乐祸</t>
+  </si>
+  <si>
+    <t>adjective: disdainfully or ironically humorous 诙谐的，幽默的；滑稽的，可笑的; scornful and mocking</t>
+  </si>
+  <si>
+    <t>讽刺的</t>
+  </si>
+  <si>
+    <t>sardonic
+[sɑː'dɒnɪk]</t>
+  </si>
+  <si>
+    <t>schadenfreude
+['ʃɑ:dən,frɔidə]</t>
+  </si>
+  <si>
+    <t>scintillating
+ ['sɪntɪletɪŋ]</t>
+  </si>
+  <si>
+    <t>noun: calmness or poise vi. 平衡；准备好；悬着 in difficult situations</t>
+  </si>
+  <si>
+    <t>adjective: having good judgement and acute insight n. 洞察力；洞悉</t>
+  </si>
+  <si>
+    <t>敏锐的；有洞察力的</t>
+  </si>
+  <si>
+    <t>noun: an angry dispute n. 辩论；争吵</t>
+  </si>
+  <si>
+    <t>一行；争吵</t>
+  </si>
+  <si>
+    <t>adjective: feeling or showing profound respect or veneration n. 尊敬；崇拜</t>
+  </si>
+  <si>
+    <t>adjective: to be shy, and to be inclined to retract vt. 缩回；缩进；取消 from company</t>
+  </si>
+  <si>
+    <t>退休的</t>
+  </si>
+  <si>
+    <t>adjective: rising again as to new life and vigor n. [生物] 活力，精力</t>
+  </si>
+  <si>
+    <t>重获新生的</t>
+  </si>
+  <si>
+    <t>决定</t>
+  </si>
+  <si>
+    <t>容忍</t>
+  </si>
+  <si>
+    <t>noun: an unstated adj. 未声明的；未明确说明的 doubt that prevents you from accepting something wholeheartedly</t>
+  </si>
+  <si>
+    <t>怀疑</t>
+  </si>
+  <si>
+    <t>noun: a retaliatory adj. 报复的 action against an enemy in wartime</t>
+  </si>
+  <si>
+    <t>报复</t>
+  </si>
+  <si>
+    <t>verb: to make objections while pleading n. 恳求；答辩；辩论，诉状</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>ambivalence</t>
+  </si>
+  <si>
+    <t>矛盾的</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>争论；辩论</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>相似的人物；配对物</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>resigned</t>
+  </si>
+  <si>
+    <t>顺从的</t>
+  </si>
+  <si>
+    <t>似乎有道理的</t>
+  </si>
+  <si>
+    <t>a long or exhaustive list of people or things.</t>
+  </si>
+  <si>
+    <t>a laundry list</t>
+  </si>
+  <si>
+    <t>a relatively uncensored press</t>
+  </si>
+  <si>
+    <t>a rough approximation</t>
+  </si>
+  <si>
+    <t>粗略的近似情形</t>
+  </si>
+  <si>
+    <t>a wider cultural context</t>
+  </si>
+  <si>
+    <t>更广阔的文化背景</t>
+  </si>
+  <si>
+    <t>aging tissue</t>
+  </si>
+  <si>
+    <t>衰老的组织</t>
+  </si>
+  <si>
+    <t>an accomplished biographer</t>
+  </si>
+  <si>
+    <t>富有造诣的传记作家</t>
+  </si>
+  <si>
+    <t>disinterested inquiry</t>
+  </si>
+  <si>
+    <t>客观公正的探究</t>
+  </si>
+  <si>
+    <t>dispassionate distance</t>
+  </si>
+  <si>
+    <t>不带感情的客观公正</t>
+  </si>
+  <si>
+    <t>do a disservice to</t>
+  </si>
+  <si>
+    <t>帮倒忙</t>
+  </si>
+  <si>
+    <t>doctrine of progress</t>
+  </si>
+  <si>
+    <t>进步思想</t>
+  </si>
+  <si>
+    <t>economic category</t>
+  </si>
+  <si>
+    <t>经济范畴</t>
+  </si>
+  <si>
+    <t>feminist criticism</t>
+  </si>
+  <si>
+    <t>女权主义批评</t>
+  </si>
+  <si>
+    <t>frame of reference</t>
+  </si>
+  <si>
+    <t>参考标准</t>
+  </si>
+  <si>
+    <t>in-depth informatioin</t>
+  </si>
+  <si>
+    <t>深彻的信息</t>
+  </si>
+  <si>
+    <t>to bear only a tangential relationship to</t>
+  </si>
+  <si>
+    <t>仅有微弱的关系</t>
+  </si>
+  <si>
+    <t>acoustic</t>
+  </si>
+  <si>
+    <t>有关声音的</t>
+  </si>
+  <si>
+    <t>美学的</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>解剖</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>chronology</t>
+  </si>
+  <si>
+    <t>年代学</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>酶</t>
+  </si>
+  <si>
+    <t>ethnic</t>
+  </si>
+  <si>
+    <t>种族的</t>
+  </si>
+  <si>
+    <t>glaciation</t>
+  </si>
+  <si>
+    <t>冰河作用</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>葡萄糖</t>
+  </si>
+  <si>
+    <t>heterogeneous</t>
+  </si>
+  <si>
+    <t>不同种类的</t>
+  </si>
+  <si>
+    <t>humidly</t>
+  </si>
+  <si>
+    <t>湿气；潮湿</t>
+  </si>
+  <si>
+    <t>ideological</t>
+  </si>
+  <si>
+    <t>意识形态的</t>
+  </si>
+  <si>
+    <t>infectious</t>
+  </si>
+  <si>
+    <t>有传染性的</t>
+  </si>
+  <si>
+    <t>lyrical</t>
+  </si>
+  <si>
+    <t>抒情的</t>
+  </si>
+  <si>
+    <t>magnetic</t>
+  </si>
+  <si>
+    <t>有磁性的</t>
+  </si>
+  <si>
+    <t>metaphysics</t>
+  </si>
+  <si>
+    <t>哲学的</t>
+  </si>
+  <si>
+    <t>meteorologic</t>
+  </si>
+  <si>
+    <t>气象的</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>氮气</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>营养</t>
+  </si>
+  <si>
+    <t>optic</t>
+  </si>
+  <si>
+    <t>视觉的</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+  </si>
+  <si>
+    <t>光合作用</t>
+  </si>
+  <si>
+    <t>predator</t>
+  </si>
+  <si>
+    <t>掠食者</t>
+  </si>
+  <si>
+    <t>proliferation</t>
+  </si>
+  <si>
+    <t>增殖</t>
+  </si>
+  <si>
+    <t>psychohisotry</t>
+  </si>
+  <si>
+    <t>心理历史学</t>
+  </si>
+  <si>
+    <t>racism</t>
+  </si>
+  <si>
+    <t>种族主义</t>
+  </si>
+  <si>
+    <t>radioactive</t>
+  </si>
+  <si>
+    <t>放射性的</t>
+  </si>
+  <si>
+    <t>seismic</t>
+  </si>
+  <si>
+    <t>地震的</t>
+  </si>
+  <si>
+    <t>seminal</t>
+  </si>
+  <si>
+    <t>种子的；生殖的</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>样本</t>
+  </si>
+  <si>
+    <t>spectrum</t>
+  </si>
+  <si>
+    <t>光谱；波普</t>
+  </si>
+  <si>
+    <t>stratlfy</t>
+  </si>
+  <si>
+    <t>使分层</t>
+  </si>
+  <si>
+    <t>terrain</t>
+  </si>
+  <si>
+    <t>地形</t>
+  </si>
+  <si>
+    <t>thermodynamic</t>
+  </si>
+  <si>
+    <t>热力学的</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>植被</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petroleum  [pɪ'trəʊlɪəm] </t>
+  </si>
+  <si>
+    <t>vertebrate</t>
+  </si>
+  <si>
+    <t>脊椎动物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archaeology  [,ɑːkɪ'ɒlədʒɪ] </t>
+  </si>
+  <si>
+    <t>适当的；充分的</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>不利的；反对的</t>
+  </si>
+  <si>
+    <t>amplify</t>
+  </si>
+  <si>
+    <t>放大；增强；扩大</t>
+  </si>
+  <si>
+    <t>analogy</t>
+  </si>
+  <si>
+    <t>类似；类推</t>
+  </si>
+  <si>
+    <t>antagonist</t>
+  </si>
+  <si>
+    <t>敌手；对手</t>
+  </si>
+  <si>
+    <t>anticipate</t>
+  </si>
+  <si>
+    <t>预期；先占</t>
+  </si>
+  <si>
+    <t>antithetic</t>
+  </si>
+  <si>
+    <t>正相反的；对立的</t>
+  </si>
+  <si>
+    <t>appraise</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>collide</t>
+  </si>
+  <si>
+    <t>碰撞</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>偿还</t>
+  </si>
+  <si>
+    <t>condemn</t>
+  </si>
+  <si>
+    <t>contend</t>
+  </si>
+  <si>
+    <t>斗争；主张</t>
+  </si>
+  <si>
+    <t>contention</t>
+  </si>
+  <si>
+    <t>争论；论点</t>
+  </si>
+  <si>
+    <t>contentious</t>
+  </si>
+  <si>
+    <t>好争斗的；争论的</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>争论；竞赛</t>
+  </si>
+  <si>
+    <t>发明；设计；图谋</t>
+  </si>
+  <si>
+    <t>didactic</t>
+  </si>
+  <si>
+    <t>说教的</t>
+  </si>
+  <si>
+    <t>eclecticism</t>
+  </si>
+  <si>
+    <t>折中主义</t>
+  </si>
+  <si>
+    <t>futility</t>
+  </si>
+  <si>
+    <t>无益；无用</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>真实的</t>
+  </si>
+  <si>
+    <t>深刻的</t>
+  </si>
+  <si>
+    <t>nostalgic</t>
+  </si>
+  <si>
+    <t>怀旧的</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>目标；客观的</t>
+  </si>
+  <si>
+    <t>persuasive</t>
+  </si>
+  <si>
+    <t>有说服力的</t>
+  </si>
+  <si>
+    <t>pessimism</t>
+  </si>
+  <si>
+    <t>悲观</t>
+  </si>
+  <si>
+    <t>pitfall</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>postulate</t>
+  </si>
+  <si>
+    <t>假定；基本要求</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>前提；提论</t>
+  </si>
+  <si>
+    <t>presumedly</t>
+  </si>
+  <si>
+    <t>据推测；大概</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>原始的；早起的；简单的；</t>
+  </si>
+  <si>
+    <t>profoundly</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>主张；抗议</t>
+  </si>
+  <si>
+    <t>provocative</t>
+  </si>
+  <si>
+    <t>煽动的</t>
+  </si>
+  <si>
+    <t>rebellious</t>
+  </si>
+  <si>
+    <t>造反的；反抗的</t>
+  </si>
+  <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>to prove wrong</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>加强；补充</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>像；类似</t>
+  </si>
+  <si>
+    <t>resemblance</t>
+  </si>
+  <si>
+    <t>雷同之处</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>v 计划；设计 n安排，计划，阴谋，方案，摘要</t>
+  </si>
+  <si>
+    <t>shortcoming</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>skeptical</t>
+  </si>
+  <si>
+    <t>好怀疑的</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>使屈从；题目；主题；受他国统治；以。。为条件</t>
+  </si>
+  <si>
+    <t>subjective</t>
+  </si>
+  <si>
+    <t>主管的</t>
+  </si>
+  <si>
+    <t>successor</t>
+  </si>
+  <si>
+    <t>继承者；后续的事物</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>实验；假设；实验性的；暂定的</t>
+  </si>
+  <si>
+    <t>unanimous</t>
+  </si>
+  <si>
+    <t>意见一致的；</t>
+  </si>
+  <si>
+    <t>unitary</t>
+  </si>
+  <si>
+    <t>单一的；整体的</t>
+  </si>
+  <si>
+    <t>vagary</t>
+  </si>
+  <si>
+    <t>反复无常的；古怪的</t>
+  </si>
+  <si>
+    <t>veto</t>
+  </si>
+  <si>
+    <t>否决；禁止</t>
+  </si>
+  <si>
+    <t>wary</t>
+  </si>
+  <si>
+    <t>机警的</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>然而</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account for </t>
+  </si>
+  <si>
+    <t>做出解释；导致；引起</t>
+  </si>
+  <si>
+    <t>act on</t>
+  </si>
+  <si>
+    <t>作用于</t>
+  </si>
+  <si>
+    <t>address oneself to</t>
+  </si>
+  <si>
+    <t>针对。。而说；把注意力放在</t>
+  </si>
+  <si>
+    <t>and so forth</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>argue over</t>
+  </si>
+  <si>
+    <t>就什么展开辩论</t>
+  </si>
+  <si>
+    <t>arise from</t>
+  </si>
+  <si>
+    <t>起源于</t>
+  </si>
+  <si>
+    <t>as far as… is concertned</t>
+  </si>
+  <si>
+    <t>就。。而言</t>
+  </si>
+  <si>
+    <t>as yet</t>
+  </si>
+  <si>
+    <t>迄今为止</t>
+  </si>
+  <si>
+    <t>be subject to</t>
+  </si>
+  <si>
+    <t>常受。。的</t>
+  </si>
+  <si>
+    <t>derive from</t>
+  </si>
+  <si>
+    <t>give way to</t>
+  </si>
+  <si>
+    <t>让位于</t>
+  </si>
+  <si>
+    <t>have yet to</t>
+  </si>
+  <si>
+    <t>有待于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in terms of </t>
+  </si>
+  <si>
+    <t>按照；通过</t>
+  </si>
+  <si>
+    <t>present .. With..</t>
+  </si>
+  <si>
+    <t>为。。提供。。</t>
+  </si>
+  <si>
+    <t>subject to</t>
+  </si>
+  <si>
+    <t>受制于。。</t>
+  </si>
+  <si>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>分子</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>分母</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>小数</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>appear to</t>
+  </si>
+  <si>
+    <t>好像</t>
   </si>
 </sst>
 </file>
@@ -5314,31 +6152,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.140625" customWidth="1"/>
     <col min="4" max="4" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1233</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1234</v>
+        <v>1207</v>
       </c>
       <c r="C1" t="s">
-        <v>1235</v>
+        <v>1208</v>
       </c>
       <c r="D1" t="s">
-        <v>1236</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
@@ -5346,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1106</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -5360,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1107</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -5374,7 +6213,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1108</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5388,7 +6227,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1109</v>
+        <v>1082</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -5399,13 +6238,13 @@
     </row>
     <row r="6" spans="1:4" ht="31.5">
       <c r="A6" s="2" t="s">
-        <v>1323</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1111</v>
+        <v>1084</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1110</v>
+        <v>1083</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -5416,7 +6255,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1112</v>
+        <v>1085</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -5430,7 +6269,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1113</v>
+        <v>1086</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -5444,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1114</v>
+        <v>1087</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -5458,10 +6297,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1188</v>
+        <v>1161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1115</v>
+        <v>1088</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -5472,7 +6311,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1189</v>
+        <v>1162</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
@@ -5486,10 +6325,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1118</v>
+        <v>1091</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1117</v>
+        <v>1090</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -5500,7 +6339,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1116</v>
+        <v>1089</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -5511,10 +6350,10 @@
     </row>
     <row r="14" spans="1:4" ht="45">
       <c r="A14" s="2" t="s">
-        <v>1119</v>
+        <v>1092</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1120</v>
+        <v>1093</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -5528,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1121</v>
+        <v>1094</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -5542,7 +6381,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1122</v>
+        <v>1095</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -5556,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1123</v>
+        <v>1096</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -5567,10 +6406,10 @@
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>1324</v>
+        <v>1297</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1124</v>
+        <v>1097</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>43</v>
@@ -5581,10 +6420,10 @@
     </row>
     <row r="19" spans="1:4" ht="38.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>1325</v>
+        <v>1298</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1125</v>
+        <v>1098</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>45</v>
@@ -5598,7 +6437,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1123</v>
+        <v>1096</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>41</v>
@@ -5612,7 +6451,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1126</v>
+        <v>1099</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>50</v>
@@ -5623,13 +6462,13 @@
     </row>
     <row r="22" spans="1:4" ht="46.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>1326</v>
+        <v>1299</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1128</v>
+        <v>1101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1127</v>
+        <v>1100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>52</v>
@@ -5640,10 +6479,10 @@
         <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1130</v>
+        <v>1103</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1129</v>
+        <v>1102</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>54</v>
@@ -5654,10 +6493,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1132</v>
+        <v>1105</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1131</v>
+        <v>1104</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>56</v>
@@ -5668,7 +6507,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1133</v>
+        <v>1106</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>58</v>
@@ -5679,10 +6518,10 @@
     </row>
     <row r="26" spans="1:4" ht="44.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>1327</v>
+        <v>1300</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1134</v>
+        <v>1107</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>60</v>
@@ -5696,13 +6535,13 @@
         <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1137</v>
+        <v>1110</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1135</v>
+        <v>1108</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1136</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -5710,10 +6549,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1139</v>
+        <v>1112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1138</v>
+        <v>1111</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>64</v>
@@ -5724,7 +6563,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1140</v>
+        <v>1113</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>66</v>
@@ -5738,7 +6577,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1141</v>
+        <v>1114</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>69</v>
@@ -5752,10 +6591,10 @@
         <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1143</v>
+        <v>1116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1142</v>
+        <v>1115</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>72</v>
@@ -5766,7 +6605,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1144</v>
+        <v>1117</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>74</v>
@@ -5780,7 +6619,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1145</v>
+        <v>1118</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>77</v>
@@ -5794,7 +6633,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1146</v>
+        <v>1119</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
@@ -5808,7 +6647,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1147</v>
+        <v>1120</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>83</v>
@@ -5822,7 +6661,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1148</v>
+        <v>1121</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -5836,7 +6675,7 @@
         <v>88</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1190</v>
+        <v>1163</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>89</v>
@@ -5850,7 +6689,7 @@
         <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1192</v>
+        <v>1165</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>92</v>
@@ -5864,7 +6703,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1149</v>
+        <v>1122</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>95</v>
@@ -5878,10 +6717,10 @@
         <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1151</v>
+        <v>1124</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1150</v>
+        <v>1123</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>98</v>
@@ -5892,7 +6731,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1152</v>
+        <v>1125</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>100</v>
@@ -5906,7 +6745,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1153</v>
+        <v>1126</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>103</v>
@@ -5920,7 +6759,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1191</v>
+        <v>1164</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>106</v>
@@ -5934,7 +6773,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1154</v>
+        <v>1127</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>109</v>
@@ -5948,7 +6787,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>112</v>
@@ -5962,10 +6801,10 @@
         <v>114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>115</v>
@@ -5976,7 +6815,7 @@
         <v>116</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>117</v>
@@ -5990,7 +6829,7 @@
         <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>120</v>
@@ -6004,7 +6843,7 @@
         <v>122</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>123</v>
@@ -6018,7 +6857,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1108</v>
+        <v>1081</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>126</v>
@@ -6032,7 +6871,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1161</v>
+        <v>1134</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>129</v>
@@ -6046,10 +6885,10 @@
         <v>131</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1163</v>
+        <v>1136</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>132</v>
@@ -6057,13 +6896,13 @@
     </row>
     <row r="53" spans="1:4" ht="30">
       <c r="A53" s="2" t="s">
-        <v>1165</v>
+        <v>1138</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1166</v>
+        <v>1139</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1164</v>
+        <v>1137</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>133</v>
@@ -6074,7 +6913,7 @@
         <v>134</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>135</v>
@@ -6085,10 +6924,10 @@
     </row>
     <row r="55" spans="1:4" ht="44.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>1328</v>
+        <v>1301</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1168</v>
+        <v>1141</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>137</v>
@@ -6102,7 +6941,7 @@
         <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>140</v>
@@ -6116,7 +6955,7 @@
         <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1170</v>
+        <v>1143</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>143</v>
@@ -6130,7 +6969,7 @@
         <v>145</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1171</v>
+        <v>1144</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>146</v>
@@ -6144,10 +6983,10 @@
         <v>148</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1173</v>
+        <v>1146</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1172</v>
+        <v>1145</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>149</v>
@@ -6155,10 +6994,10 @@
     </row>
     <row r="60" spans="1:4" ht="35.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>1329</v>
+        <v>1302</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1174</v>
+        <v>1147</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>150</v>
@@ -6172,7 +7011,7 @@
         <v>152</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1175</v>
+        <v>1148</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>153</v>
@@ -6183,13 +7022,13 @@
     </row>
     <row r="62" spans="1:4" ht="46.5" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>1330</v>
+        <v>1303</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1177</v>
+        <v>1150</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>155</v>
@@ -6200,10 +7039,10 @@
         <v>156</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1179</v>
+        <v>1152</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1178</v>
+        <v>1151</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>157</v>
@@ -6214,7 +7053,7 @@
         <v>158</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1180</v>
+        <v>1153</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>159</v>
@@ -6228,10 +7067,10 @@
         <v>161</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1182</v>
+        <v>1155</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1181</v>
+        <v>1154</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>162</v>
@@ -6239,13 +7078,13 @@
     </row>
     <row r="66" spans="1:4" ht="40.5" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>1331</v>
+        <v>1304</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1184</v>
+        <v>1157</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1183</v>
+        <v>1156</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>163</v>
@@ -6256,7 +7095,7 @@
         <v>164</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1185</v>
+        <v>1158</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>165</v>
@@ -6267,13 +7106,13 @@
     </row>
     <row r="68" spans="1:4" ht="39" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>1332</v>
+        <v>1305</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1187</v>
+        <v>1160</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1186</v>
+        <v>1159</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>167</v>
@@ -6281,10 +7120,10 @@
     </row>
     <row r="69" spans="1:4" ht="44.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>1333</v>
+        <v>1306</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1193</v>
+        <v>1166</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>168</v>
@@ -6298,7 +7137,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1194</v>
+        <v>1167</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>171</v>
@@ -6312,10 +7151,10 @@
         <v>173</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1196</v>
+        <v>1169</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>174</v>
@@ -6326,7 +7165,7 @@
         <v>175</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1197</v>
+        <v>1170</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>176</v>
@@ -6340,7 +7179,7 @@
         <v>178</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1198</v>
+        <v>1171</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>179</v>
@@ -6354,7 +7193,7 @@
         <v>181</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1199</v>
+        <v>1172</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>182</v>
@@ -6368,7 +7207,7 @@
         <v>184</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>185</v>
@@ -6382,10 +7221,10 @@
         <v>187</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1202</v>
+        <v>1175</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1201</v>
+        <v>1174</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>188</v>
@@ -6396,10 +7235,10 @@
         <v>189</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1204</v>
+        <v>1177</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1203</v>
+        <v>1176</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>190</v>
@@ -6407,10 +7246,10 @@
     </row>
     <row r="78" spans="1:4" ht="46.5" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1205</v>
+        <v>1178</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>191</v>
@@ -6424,7 +7263,7 @@
         <v>193</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1206</v>
+        <v>1179</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>194</v>
@@ -6435,13 +7274,13 @@
     </row>
     <row r="80" spans="1:4" ht="36" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>1335</v>
+        <v>1308</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1208</v>
+        <v>1181</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1207</v>
+        <v>1180</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>196</v>
@@ -6452,7 +7291,7 @@
         <v>197</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1209</v>
+        <v>1182</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>198</v>
@@ -6466,10 +7305,10 @@
         <v>200</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1211</v>
+        <v>1184</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1210</v>
+        <v>1183</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>201</v>
@@ -6477,10 +7316,10 @@
     </row>
     <row r="83" spans="1:4" ht="42" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>1336</v>
+        <v>1309</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1212</v>
+        <v>1185</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>202</v>
@@ -6494,7 +7333,7 @@
         <v>204</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1213</v>
+        <v>1186</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>205</v>
@@ -6508,7 +7347,7 @@
         <v>207</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1214</v>
+        <v>1187</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>208</v>
@@ -6522,10 +7361,10 @@
         <v>210</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1215</v>
+        <v>1188</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>211</v>
@@ -6536,7 +7375,7 @@
         <v>212</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1217</v>
+        <v>1190</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>213</v>
@@ -6547,13 +7386,13 @@
     </row>
     <row r="88" spans="1:4" ht="31.5">
       <c r="A88" s="2" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1219</v>
+        <v>1192</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1218</v>
+        <v>1191</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>215</v>
@@ -6564,7 +7403,7 @@
         <v>216</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1182</v>
+        <v>1155</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>217</v>
@@ -6578,10 +7417,10 @@
         <v>219</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1221</v>
+        <v>1194</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1220</v>
+        <v>1193</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>220</v>
@@ -6592,10 +7431,10 @@
         <v>221</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1223</v>
+        <v>1196</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1222</v>
+        <v>1195</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>222</v>
@@ -6606,7 +7445,7 @@
         <v>223</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>224</v>
@@ -6620,7 +7459,7 @@
         <v>226</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1225</v>
+        <v>1198</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>227</v>
@@ -6634,7 +7473,7 @@
         <v>229</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1226</v>
+        <v>1199</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>230</v>
@@ -6648,7 +7487,7 @@
         <v>232</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1227</v>
+        <v>1200</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>233</v>
@@ -6662,7 +7501,7 @@
         <v>235</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1228</v>
+        <v>1201</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>236</v>
@@ -6676,7 +7515,7 @@
         <v>238</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1229</v>
+        <v>1202</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>239</v>
@@ -6690,7 +7529,7 @@
         <v>241</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1230</v>
+        <v>1203</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>242</v>
@@ -6704,7 +7543,7 @@
         <v>244</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>245</v>
@@ -6718,7 +7557,7 @@
         <v>247</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1232</v>
+        <v>1205</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>248</v>
@@ -6732,10 +7571,10 @@
         <v>250</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1238</v>
+        <v>1211</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1237</v>
+        <v>1210</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>251</v>
@@ -6746,7 +7585,7 @@
         <v>252</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1239</v>
+        <v>1212</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>253</v>
@@ -6760,7 +7599,7 @@
         <v>255</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1240</v>
+        <v>1213</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>256</v>
@@ -6774,10 +7613,10 @@
         <v>258</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1242</v>
+        <v>1215</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1241</v>
+        <v>1214</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>259</v>
@@ -6788,7 +7627,7 @@
         <v>260</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1243</v>
+        <v>1216</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>261</v>
@@ -6799,10 +7638,10 @@
     </row>
     <row r="106" spans="1:4" ht="35.25" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1244</v>
+        <v>1217</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>263</v>
@@ -6816,10 +7655,10 @@
         <v>265</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1246</v>
+        <v>1219</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>1245</v>
+        <v>1218</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>266</v>
@@ -6830,10 +7669,10 @@
         <v>267</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1248</v>
+        <v>1221</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1247</v>
+        <v>1220</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>268</v>
@@ -6844,7 +7683,7 @@
         <v>269</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>270</v>
@@ -6858,10 +7697,10 @@
         <v>272</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1250</v>
+        <v>1223</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1249</v>
+        <v>1222</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>273</v>
@@ -6869,13 +7708,13 @@
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>1339</v>
+        <v>1312</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1252</v>
+        <v>1225</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>1251</v>
+        <v>1224</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>274</v>
@@ -6886,10 +7725,10 @@
         <v>275</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1254</v>
+        <v>1227</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>276</v>
@@ -6900,7 +7739,7 @@
         <v>277</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1255</v>
+        <v>1228</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>278</v>
@@ -6914,7 +7753,7 @@
         <v>280</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>281</v>
@@ -6928,7 +7767,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1257</v>
+        <v>1230</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>284</v>
@@ -6942,10 +7781,10 @@
         <v>286</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1259</v>
+        <v>1232</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1258</v>
+        <v>1231</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>287</v>
@@ -6956,7 +7795,7 @@
         <v>288</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1260</v>
+        <v>1233</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>289</v>
@@ -6970,7 +7809,7 @@
         <v>291</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>292</v>
@@ -6984,10 +7823,10 @@
         <v>294</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1262</v>
+        <v>1235</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1261</v>
+        <v>1234</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>295</v>
@@ -6998,7 +7837,7 @@
         <v>296</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>297</v>
@@ -7012,7 +7851,7 @@
         <v>299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1263</v>
+        <v>1236</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>300</v>
@@ -7026,7 +7865,7 @@
         <v>302</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>303</v>
@@ -7040,7 +7879,7 @@
         <v>305</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>306</v>
@@ -7054,10 +7893,10 @@
         <v>308</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1268</v>
+        <v>1241</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1267</v>
+        <v>1240</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>309</v>
@@ -7068,7 +7907,7 @@
         <v>310</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1269</v>
+        <v>1242</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>311</v>
@@ -7082,10 +7921,10 @@
         <v>313</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1271</v>
+        <v>1244</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>1270</v>
+        <v>1243</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>314</v>
@@ -7096,7 +7935,7 @@
         <v>315</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1272</v>
+        <v>1245</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>316</v>
@@ -7110,7 +7949,7 @@
         <v>318</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1273</v>
+        <v>1246</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>319</v>
@@ -7124,10 +7963,10 @@
         <v>321</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1275</v>
+        <v>1248</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>1274</v>
+        <v>1247</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>322</v>
@@ -7138,7 +7977,7 @@
         <v>323</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1276</v>
+        <v>1249</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>324</v>
@@ -7152,7 +7991,7 @@
         <v>326</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1277</v>
+        <v>1250</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>327</v>
@@ -7166,10 +8005,10 @@
         <v>329</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1279</v>
+        <v>1252</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>1278</v>
+        <v>1251</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>330</v>
@@ -7180,7 +8019,7 @@
         <v>331</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1280</v>
+        <v>1253</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>332</v>
@@ -7194,7 +8033,7 @@
         <v>334</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1153</v>
+        <v>1126</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>335</v>
@@ -7208,7 +8047,7 @@
         <v>337</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1281</v>
+        <v>1254</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>338</v>
@@ -7222,7 +8061,7 @@
         <v>340</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>341</v>
@@ -7236,7 +8075,7 @@
         <v>343</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1283</v>
+        <v>1256</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>344</v>
@@ -7250,10 +8089,10 @@
         <v>346</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1285</v>
+        <v>1258</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>347</v>
@@ -7264,7 +8103,7 @@
         <v>348</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>349</v>
@@ -7278,7 +8117,7 @@
         <v>351</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>352</v>
@@ -7292,7 +8131,7 @@
         <v>354</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1288</v>
+        <v>1261</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>355</v>
@@ -7306,10 +8145,10 @@
         <v>357</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1290</v>
+        <v>1263</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>1289</v>
+        <v>1262</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>358</v>
@@ -7320,10 +8159,10 @@
         <v>359</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1292</v>
+        <v>1265</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>360</v>
@@ -7334,10 +8173,10 @@
         <v>361</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1294</v>
+        <v>1267</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>1293</v>
+        <v>1266</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>362</v>
@@ -7348,10 +8187,10 @@
         <v>363</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1296</v>
+        <v>1269</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>364</v>
@@ -7362,7 +8201,7 @@
         <v>365</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>366</v>
@@ -7376,7 +8215,7 @@
         <v>368</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>369</v>
@@ -7390,7 +8229,7 @@
         <v>371</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1299</v>
+        <v>1272</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>372</v>
@@ -7404,10 +8243,10 @@
         <v>374</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1300</v>
+        <v>1273</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>375</v>
@@ -7418,7 +8257,7 @@
         <v>376</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1302</v>
+        <v>1275</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>377</v>
@@ -7432,10 +8271,10 @@
         <v>379</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1304</v>
+        <v>1277</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1303</v>
+        <v>1276</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>380</v>
@@ -7446,7 +8285,7 @@
         <v>381</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1305</v>
+        <v>1278</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>382</v>
@@ -7460,7 +8299,7 @@
         <v>384</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1306</v>
+        <v>1279</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>385</v>
@@ -7471,10 +8310,10 @@
     </row>
     <row r="154" spans="1:4" ht="38.25" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1340</v>
+        <v>1313</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1307</v>
+        <v>1280</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>387</v>
@@ -7485,10 +8324,10 @@
     </row>
     <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="2" t="s">
-        <v>1341</v>
+        <v>1314</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1308</v>
+        <v>1281</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>389</v>
@@ -7499,10 +8338,10 @@
     </row>
     <row r="156" spans="1:4" ht="31.5">
       <c r="A156" s="2" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1309</v>
+        <v>1282</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>391</v>
@@ -7516,7 +8355,7 @@
         <v>393</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>394</v>
@@ -7530,7 +8369,7 @@
         <v>396</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1311</v>
+        <v>1284</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>397</v>
@@ -7541,10 +8380,10 @@
     </row>
     <row r="159" spans="1:4" ht="40.5" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1343</v>
+        <v>1316</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>399</v>
@@ -7555,10 +8394,10 @@
     </row>
     <row r="160" spans="1:4" ht="45">
       <c r="A160" s="2" t="s">
-        <v>1344</v>
+        <v>1317</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>401</v>
@@ -7569,13 +8408,13 @@
     </row>
     <row r="161" spans="1:4" ht="45">
       <c r="A161" s="2" t="s">
-        <v>1345</v>
+        <v>1318</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>403</v>
@@ -7583,10 +8422,10 @@
     </row>
     <row r="162" spans="1:4" ht="37.5" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1346</v>
+        <v>1319</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>404</v>
@@ -7600,7 +8439,7 @@
         <v>406</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1317</v>
+        <v>1290</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>407</v>
@@ -7614,7 +8453,7 @@
         <v>409</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1318</v>
+        <v>1291</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>410</v>
@@ -7628,7 +8467,7 @@
         <v>412</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1319</v>
+        <v>1292</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>413</v>
@@ -7639,10 +8478,10 @@
     </row>
     <row r="166" spans="1:4" ht="37.5" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>1348</v>
+        <v>1321</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1320</v>
+        <v>1293</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>415</v>
@@ -7653,13 +8492,13 @@
     </row>
     <row r="167" spans="1:4" ht="36" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>1347</v>
+        <v>1320</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1322</v>
+        <v>1295</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>1321</v>
+        <v>1294</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>417</v>
@@ -7667,2958 +8506,4041 @@
     </row>
     <row r="168" spans="1:4" ht="45">
       <c r="A168" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30">
       <c r="A169" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="30">
       <c r="A176" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="30">
       <c r="A178" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30">
       <c r="A180" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="30">
       <c r="A181" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="30">
       <c r="A183" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="30">
       <c r="A184" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="30">
       <c r="A186" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="30">
       <c r="A189" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="30">
       <c r="A192" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30">
       <c r="A194" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30">
       <c r="A195" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30">
       <c r="A196" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="60">
       <c r="A197" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="30">
       <c r="A198" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="30">
       <c r="A199" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="30">
       <c r="A200" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="30">
       <c r="A201" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="30">
       <c r="A202" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="30">
       <c r="A205" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="30">
       <c r="A206" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="30">
       <c r="A208" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="30">
       <c r="A209" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30">
       <c r="A210" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="30">
       <c r="A211" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="30">
       <c r="A213" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="30">
       <c r="A214" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="30">
       <c r="A215" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="30">
       <c r="A219" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="30">
       <c r="A220" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="30">
       <c r="A221" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="30">
       <c r="A223" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="45">
       <c r="A224" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="45">
       <c r="A225" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="30">
       <c r="A226" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="30">
       <c r="A228" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="30">
       <c r="A229" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="30">
       <c r="A231" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="30">
       <c r="A232" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="30">
       <c r="A233" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="30">
       <c r="A234" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="30">
       <c r="A236" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="30">
       <c r="A237" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="30">
       <c r="A238" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="30">
       <c r="A240" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30">
       <c r="A242" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="30">
       <c r="A243" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="30">
       <c r="A244" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="30">
       <c r="A245" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="30">
       <c r="A246" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="30">
       <c r="A247" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="30">
       <c r="A254" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="45">
       <c r="A257" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="30">
       <c r="A260" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="30">
       <c r="A261" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="30">
       <c r="A262" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="30">
       <c r="A263" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="30">
       <c r="A264" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="30">
       <c r="A265" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="30">
       <c r="A266" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="30">
       <c r="A268" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="30">
       <c r="A269" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="30">
       <c r="A270" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="30">
       <c r="A271" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="45">
       <c r="A272" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D272" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="30">
       <c r="A273" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="30">
       <c r="A275" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="30">
       <c r="A277" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="30">
       <c r="A278" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="30">
       <c r="A279" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="30">
       <c r="A280" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="30">
       <c r="A281" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="30">
       <c r="A282" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="30">
       <c r="A283" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="30">
       <c r="A285" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="30">
       <c r="A286" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="30">
       <c r="A287" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="30">
       <c r="A288" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="30">
       <c r="A290" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="30">
       <c r="A291" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="30">
       <c r="A294" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="30">
       <c r="A296" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="30">
       <c r="A297" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="45">
       <c r="A298" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="30">
       <c r="A299" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="30">
       <c r="A300" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="30">
       <c r="A301" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D301" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="30">
       <c r="A302" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="30">
       <c r="A303" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="30">
       <c r="A304" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15.75">
       <c r="A305" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="45">
       <c r="A306" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D306" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15.75">
       <c r="A307" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="30">
       <c r="A309" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="30">
       <c r="A310" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="31.5">
       <c r="A311" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="30">
       <c r="A312" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="30">
       <c r="A313" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D313" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="30">
       <c r="A314" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="30">
       <c r="A315" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="30">
       <c r="A316" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="30">
       <c r="A317" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D317" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="30">
       <c r="A318" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D318" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="30">
       <c r="A319" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D319" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="45">
       <c r="A320" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15.75">
       <c r="A321" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="30">
       <c r="A322" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="75">
       <c r="A323" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D323" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15.75">
       <c r="A324" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D324" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="30">
       <c r="A325" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D325" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="30">
       <c r="A326" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15.75">
       <c r="A327" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15.75">
       <c r="A328" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="30">
       <c r="A329" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15.75">
       <c r="A330" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D330" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="30">
       <c r="A331" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D331" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="30">
       <c r="A332" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="45">
       <c r="A333" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D333" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="D333" s="4" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="30">
       <c r="A334" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D334" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="30">
       <c r="A335" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D335" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="30">
       <c r="A336" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D336" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15.75">
       <c r="A337" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D337" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="30">
       <c r="A339" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="30">
       <c r="A340" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D340" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15.75">
       <c r="A341" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="30">
       <c r="A342" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D342" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="30">
       <c r="A343" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D343" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="45">
       <c r="A344" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D344" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15.75">
       <c r="A345" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D345" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="30">
       <c r="A346" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D346" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="30">
       <c r="A347" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="45">
+      <c r="A348" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B347" s="2"/>
-      <c r="C347" s="3" t="s">
+      <c r="B348" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D348" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="30">
-      <c r="A348" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B348" s="2"/>
-      <c r="C348" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="30">
       <c r="A349" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="B349" s="2"/>
+        <v>942</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1422</v>
+      </c>
       <c r="C349" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="30">
       <c r="A350" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="36" customHeight="1">
+      <c r="A351" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D351" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="B350" s="2"/>
-      <c r="C350" s="3" t="s">
+    </row>
+    <row r="352" spans="1:4" ht="30">
+      <c r="A352" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="B352" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D352" s="3" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="60">
-      <c r="A351" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="B351" s="2"/>
-      <c r="C351" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="15.75">
-      <c r="A352" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B352" s="2"/>
-      <c r="C352" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="30">
       <c r="A353" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="B353" s="2"/>
+        <v>952</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1233</v>
+      </c>
       <c r="C353" s="3" t="s">
-        <v>959</v>
+        <v>1416</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="30">
       <c r="A354" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B354" s="2"/>
+        <v>954</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1415</v>
+      </c>
       <c r="C354" s="3" t="s">
-        <v>962</v>
+        <v>1414</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="30">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="31.5">
       <c r="A355" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="B355" s="2"/>
+        <v>956</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1413</v>
+      </c>
       <c r="C355" s="3" t="s">
-        <v>965</v>
+        <v>1412</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="30">
       <c r="A356" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B356" s="2"/>
+        <v>958</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1098</v>
+      </c>
       <c r="C356" s="3" t="s">
-        <v>968</v>
+        <v>1411</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="30">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="45">
       <c r="A357" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="B357" s="2"/>
+        <v>1408</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1407</v>
+      </c>
       <c r="C357" s="3" t="s">
-        <v>971</v>
+        <v>1406</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="30">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="36.75" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B358" s="2"/>
+        <v>1409</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1405</v>
+      </c>
       <c r="C358" s="3" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="30">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="36" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="B359" s="2"/>
+        <v>1410</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1404</v>
+      </c>
       <c r="C359" s="3" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="30">
       <c r="A360" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B360" s="2"/>
+        <v>965</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1403</v>
+      </c>
       <c r="C360" s="3" t="s">
-        <v>980</v>
+        <v>1402</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="30">
       <c r="A361" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B361" s="2"/>
+        <v>967</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1401</v>
+      </c>
       <c r="C361" s="3" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="30">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="45">
       <c r="A362" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B362" s="2"/>
+        <v>970</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1400</v>
+      </c>
       <c r="C362" s="3" t="s">
-        <v>986</v>
+        <v>1399</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="30">
       <c r="A363" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="B363" s="2"/>
+        <v>972</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1397</v>
+      </c>
       <c r="C363" s="3" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="30">
       <c r="A364" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="B364" s="2"/>
+        <v>975</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1396</v>
+      </c>
       <c r="C364" s="3" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="30">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="60">
       <c r="A365" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="B365" s="2"/>
+        <v>978</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1395</v>
+      </c>
       <c r="C365" s="3" t="s">
-        <v>995</v>
+        <v>1394</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="45">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="30">
       <c r="A366" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="B366" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1393</v>
+      </c>
       <c r="C366" s="3" t="s">
-        <v>998</v>
+        <v>1392</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="30">
       <c r="A367" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B367" s="2"/>
+        <v>982</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1391</v>
+      </c>
       <c r="C367" s="3" t="s">
-        <v>1001</v>
+        <v>1390</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="30">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="40.5" customHeight="1">
       <c r="A368" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B368" s="2"/>
+        <v>1388</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="C368" s="3" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="30">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="31.5">
       <c r="A369" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B369" s="2"/>
+        <v>1386</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1385</v>
+      </c>
       <c r="C369" s="3" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="30">
       <c r="A370" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B370" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1150</v>
+      </c>
       <c r="C370" s="3" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="30">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="31.5">
       <c r="A371" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B371" s="2"/>
+        <v>991</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1384</v>
+      </c>
       <c r="C371" s="3" t="s">
-        <v>1013</v>
+        <v>1383</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15.75">
       <c r="A372" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B372" s="2"/>
+        <v>993</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1382</v>
+      </c>
       <c r="C372" s="3" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="15.75">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="30">
       <c r="A373" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B373" s="2"/>
+        <v>996</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1381</v>
+      </c>
       <c r="C373" s="3" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="30">
       <c r="A374" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B374" s="2"/>
+        <v>999</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1380</v>
+      </c>
       <c r="C374" s="3" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="45">
       <c r="A375" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B375" s="2"/>
+        <v>1002</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1379</v>
+      </c>
       <c r="C375" s="3" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="45">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="30">
       <c r="A376" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B376" s="2"/>
+        <v>1005</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1378</v>
+      </c>
       <c r="C376" s="3" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="30">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="31.5">
       <c r="A377" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B377" s="2"/>
+        <v>1387</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1377</v>
+      </c>
       <c r="C377" s="3" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" ht="15.75">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="30">
       <c r="A378" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B378" s="2"/>
+        <v>1010</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1376</v>
+      </c>
       <c r="C378" s="3" t="s">
-        <v>1034</v>
+        <v>1375</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="15.75">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="30">
       <c r="A379" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B379" s="2"/>
+        <v>1012</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1374</v>
+      </c>
       <c r="C379" s="3" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="30">
       <c r="A380" s="2" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1401</v>
+        <v>1112</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1040</v>
+        <v>1373</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" ht="30">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="15.75">
       <c r="A381" s="2" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1139</v>
+        <v>1372</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1400</v>
+        <v>1018</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" ht="15.75">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21" customHeight="1">
       <c r="A382" s="2" t="s">
-        <v>1044</v>
+        <v>1020</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1399</v>
+        <v>1371</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="21" customHeight="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="38.25" customHeight="1">
       <c r="A383" s="2" t="s">
-        <v>1047</v>
+        <v>1369</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1398</v>
+        <v>1368</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="38.25" customHeight="1">
       <c r="A384" s="2" t="s">
-        <v>1396</v>
+        <v>1370</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1395</v>
+        <v>1366</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1050</v>
+        <v>1367</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" ht="38.25" customHeight="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="30">
       <c r="A385" s="2" t="s">
-        <v>1397</v>
+        <v>1026</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1393</v>
+        <v>1365</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1394</v>
+        <v>1364</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="30">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="45">
       <c r="A386" s="2" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1392</v>
+        <v>1362</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1391</v>
+        <v>1363</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" ht="45">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="15.75">
       <c r="A387" s="2" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1389</v>
+        <v>1361</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1390</v>
+        <v>1031</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" ht="15.75">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="45">
       <c r="A388" s="2" t="s">
-        <v>1057</v>
+        <v>1360</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1388</v>
+        <v>1359</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="45">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="30">
       <c r="A389" s="2" t="s">
-        <v>1387</v>
+        <v>1035</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1386</v>
+        <v>1358</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1060</v>
+        <v>1357</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="30">
       <c r="A390" s="2" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1385</v>
+        <v>1356</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1384</v>
+        <v>1038</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1063</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="30">
       <c r="A391" s="2" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1383</v>
+        <v>1355</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1065</v>
+        <v>1354</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" ht="30">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="31.5">
       <c r="A392" s="2" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1382</v>
+        <v>1353</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1381</v>
+        <v>1043</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" ht="31.5">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="30">
       <c r="A393" s="2" t="s">
-        <v>1069</v>
+        <v>1352</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1380</v>
+        <v>1351</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" ht="30">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="31.5">
       <c r="A394" s="2" t="s">
-        <v>1379</v>
+        <v>1349</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1378</v>
+        <v>1350</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="31.5">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="30">
       <c r="A395" s="2" t="s">
-        <v>1376</v>
+        <v>1049</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" ht="30">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="31.5">
       <c r="A396" s="2" t="s">
-        <v>1076</v>
+        <v>1346</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="31.5">
       <c r="A397" s="2" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1374</v>
+        <v>1345</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" ht="31.5">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="38.25" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" ht="38.25" customHeight="1">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="30">
       <c r="A399" s="2" t="s">
-        <v>1369</v>
+        <v>1058</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1083</v>
+        <v>1338</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="30">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="45">
       <c r="A400" s="2" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1365</v>
+        <v>1336</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" ht="45">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="45.75" customHeight="1">
       <c r="A401" s="2" t="s">
-        <v>1087</v>
+        <v>1340</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1364</v>
+        <v>1335</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1363</v>
+        <v>1062</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" ht="45.75" customHeight="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="30">
       <c r="A402" s="2" t="s">
-        <v>1367</v>
+        <v>1064</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1362</v>
+        <v>1334</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1089</v>
+        <v>1333</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="30">
       <c r="A403" s="2" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1361</v>
+        <v>1332</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1360</v>
+        <v>1067</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="30">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="45">
       <c r="A404" s="2" t="s">
-        <v>1093</v>
+        <v>1069</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1359</v>
+        <v>1331</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1094</v>
+        <v>1330</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" ht="45">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="30">
       <c r="A405" s="2" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1358</v>
+        <v>1329</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1357</v>
+        <v>1072</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="30">
       <c r="A406" s="2" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1099</v>
+        <v>1075</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="30">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="37.5" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>1101</v>
+        <v>1341</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1355</v>
+        <v>1327</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A408" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>1105</v>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
